--- a/Recursos_Archivos_CSV/FioDio/CLIENTES-PREF-EJEC.xlsx
+++ b/Recursos_Archivos_CSV/FioDio/CLIENTES-PREF-EJEC.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="M4" sqref="M4"/>
@@ -11163,6 +11163,7912 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C162" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D162" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E162" s="0" t="inlineStr">
+        <is>
+          <t>sv-cm1664</t>
+        </is>
+      </c>
+      <c r="F162" s="0" t="inlineStr">
+        <is>
+          <t>015965532</t>
+        </is>
+      </c>
+      <c r="G162" s="0" t="inlineStr">
+        <is>
+          <t>02100911630058</t>
+        </is>
+      </c>
+      <c r="H162" s="0" t="inlineStr">
+        <is>
+          <t>CABRERA MARTINEZ</t>
+        </is>
+      </c>
+      <c r="I162" s="0" t="inlineStr">
+        <is>
+          <t>MARTA ALICIA</t>
+        </is>
+      </c>
+      <c r="J162" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K162" s="0" t="inlineStr">
+        <is>
+          <t>62805523</t>
+        </is>
+      </c>
+      <c r="L162" s="0" t="inlineStr">
+        <is>
+          <t>202.80</t>
+        </is>
+      </c>
+      <c r="M162" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C163" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D163" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E163" s="0" t="inlineStr">
+        <is>
+          <t>sv-ra2158</t>
+        </is>
+      </c>
+      <c r="F163" s="0" t="inlineStr">
+        <is>
+          <t>002873946</t>
+        </is>
+      </c>
+      <c r="G163" s="0" t="inlineStr">
+        <is>
+          <t>02102501671058</t>
+        </is>
+      </c>
+      <c r="H163" s="0" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ DE TOVAR</t>
+        </is>
+      </c>
+      <c r="I163" s="0" t="inlineStr">
+        <is>
+          <t>ANA LIZ</t>
+        </is>
+      </c>
+      <c r="J163" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K163" s="0" t="inlineStr">
+        <is>
+          <t>64405701</t>
+        </is>
+      </c>
+      <c r="L163" s="0" t="inlineStr">
+        <is>
+          <t>270.20</t>
+        </is>
+      </c>
+      <c r="M163" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D164" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E164" s="0" t="inlineStr">
+        <is>
+          <t>sv-ac3746</t>
+        </is>
+      </c>
+      <c r="F164" s="0" t="inlineStr">
+        <is>
+          <t>019271511</t>
+        </is>
+      </c>
+      <c r="G164" s="0" t="inlineStr">
+        <is>
+          <t>04111206530015</t>
+        </is>
+      </c>
+      <c r="H164" s="0" t="inlineStr">
+        <is>
+          <t>ARDON GAVARRETE</t>
+        </is>
+      </c>
+      <c r="I164" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO</t>
+        </is>
+      </c>
+      <c r="J164" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K164" s="0" t="inlineStr">
+        <is>
+          <t>62789958</t>
+        </is>
+      </c>
+      <c r="L164" s="0" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="M164" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>5897</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D165" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E165" s="0" t="inlineStr">
+        <is>
+          <t>sv-vs5897</t>
+        </is>
+      </c>
+      <c r="F165" s="0" t="inlineStr">
+        <is>
+          <t>001415614</t>
+        </is>
+      </c>
+      <c r="G165" s="0" t="inlineStr">
+        <is>
+          <t>06100911591010</t>
+        </is>
+      </c>
+      <c r="H165" s="0" t="inlineStr">
+        <is>
+          <t>VASQUEZ MELARA</t>
+        </is>
+      </c>
+      <c r="I165" s="0" t="inlineStr">
+        <is>
+          <t>SALVADOR</t>
+        </is>
+      </c>
+      <c r="J165" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K165" s="0" t="inlineStr">
+        <is>
+          <t>63335201</t>
+        </is>
+      </c>
+      <c r="L165" s="0" t="inlineStr">
+        <is>
+          <t>334.40</t>
+        </is>
+      </c>
+      <c r="M165" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>9858</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D166" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E166" s="0" t="inlineStr">
+        <is>
+          <t>sv-pw9858</t>
+        </is>
+      </c>
+      <c r="F166" s="0" t="inlineStr">
+        <is>
+          <t>001083386</t>
+        </is>
+      </c>
+      <c r="G166" s="0" t="inlineStr">
+        <is>
+          <t>06172101640020</t>
+        </is>
+      </c>
+      <c r="H166" s="0" t="inlineStr">
+        <is>
+          <t>PALACIOS COLOCHO</t>
+        </is>
+      </c>
+      <c r="I166" s="0" t="inlineStr">
+        <is>
+          <t>WALTER MAURICIO</t>
+        </is>
+      </c>
+      <c r="J166" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K166" s="0" t="inlineStr">
+        <is>
+          <t>62272957</t>
+        </is>
+      </c>
+      <c r="L166" s="0" t="inlineStr">
+        <is>
+          <t>164.60</t>
+        </is>
+      </c>
+      <c r="M166" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>16424</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D167" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E167" s="0" t="inlineStr">
+        <is>
+          <t>sv-on16424</t>
+        </is>
+      </c>
+      <c r="F167" s="0" t="inlineStr">
+        <is>
+          <t>029324227</t>
+        </is>
+      </c>
+      <c r="G167" s="0" t="inlineStr">
+        <is>
+          <t>13072512641016</t>
+        </is>
+      </c>
+      <c r="H167" s="0" t="inlineStr">
+        <is>
+          <t>ORELLANA CHICA</t>
+        </is>
+      </c>
+      <c r="I167" s="0" t="inlineStr">
+        <is>
+          <t>NATIVIDAD CRISTINO</t>
+        </is>
+      </c>
+      <c r="J167" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K167" s="0" t="inlineStr">
+        <is>
+          <t>62061046</t>
+        </is>
+      </c>
+      <c r="L167" s="0" t="inlineStr">
+        <is>
+          <t>121.80</t>
+        </is>
+      </c>
+      <c r="M167" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>22084</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D168" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E168" s="0" t="inlineStr">
+        <is>
+          <t>sv-dy22084</t>
+        </is>
+      </c>
+      <c r="F168" s="0" t="inlineStr">
+        <is>
+          <t>011308479</t>
+        </is>
+      </c>
+      <c r="G168" s="0" t="inlineStr">
+        <is>
+          <t>11230804761036</t>
+        </is>
+      </c>
+      <c r="H168" s="0" t="inlineStr">
+        <is>
+          <t>DE LA O CHAVEZ</t>
+        </is>
+      </c>
+      <c r="I168" s="0" t="inlineStr">
+        <is>
+          <t>YANIRA DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="J168" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K168" s="0" t="inlineStr">
+        <is>
+          <t>75940982</t>
+        </is>
+      </c>
+      <c r="L168" s="0" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="M168" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>23204</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D169" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E169" s="0" t="inlineStr">
+        <is>
+          <t>sv-sh23204</t>
+        </is>
+      </c>
+      <c r="F169" s="0" t="inlineStr">
+        <is>
+          <t>037696573</t>
+        </is>
+      </c>
+      <c r="G169" s="0" t="inlineStr">
+        <is>
+          <t>06142707871033</t>
+        </is>
+      </c>
+      <c r="H169" s="0" t="inlineStr">
+        <is>
+          <t>SORIANO BONILLA</t>
+        </is>
+      </c>
+      <c r="I169" s="0" t="inlineStr">
+        <is>
+          <t>HECTOR ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="J169" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K169" s="0" t="inlineStr">
+        <is>
+          <t>77953576</t>
+        </is>
+      </c>
+      <c r="L169" s="0" t="inlineStr">
+        <is>
+          <t>205.20</t>
+        </is>
+      </c>
+      <c r="M169" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>26082</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C170" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D170" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E170" s="0" t="inlineStr">
+        <is>
+          <t>sv-nj26082</t>
+        </is>
+      </c>
+      <c r="F170" s="0" t="inlineStr">
+        <is>
+          <t>004813112</t>
+        </is>
+      </c>
+      <c r="G170" s="0" t="inlineStr">
+        <is>
+          <t>07032503651011</t>
+        </is>
+      </c>
+      <c r="H170" s="0" t="inlineStr">
+        <is>
+          <t>NOLASCO LOPEZ</t>
+        </is>
+      </c>
+      <c r="I170" s="0" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO</t>
+        </is>
+      </c>
+      <c r="J170" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K170" s="0" t="inlineStr">
+        <is>
+          <t>77109443</t>
+        </is>
+      </c>
+      <c r="L170" s="0" t="inlineStr">
+        <is>
+          <t>219.80</t>
+        </is>
+      </c>
+      <c r="M170" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>27200</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C171" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D171" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E171" s="0" t="inlineStr">
+        <is>
+          <t>sv-ae27200</t>
+        </is>
+      </c>
+      <c r="F171" s="0" t="inlineStr">
+        <is>
+          <t>022220448</t>
+        </is>
+      </c>
+      <c r="G171" s="0" t="inlineStr">
+        <is>
+          <t>07110810661017</t>
+        </is>
+      </c>
+      <c r="H171" s="0" t="inlineStr">
+        <is>
+          <t>AREVALO</t>
+        </is>
+      </c>
+      <c r="I171" s="0" t="inlineStr">
+        <is>
+          <t>ELMER ENRIQUE</t>
+        </is>
+      </c>
+      <c r="J171" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K171" s="0" t="inlineStr">
+        <is>
+          <t>78533506</t>
+        </is>
+      </c>
+      <c r="L171" s="0" t="inlineStr">
+        <is>
+          <t>360.40</t>
+        </is>
+      </c>
+      <c r="M171" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>47631</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C172" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D172" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E172" s="0" t="inlineStr">
+        <is>
+          <t>sv-cc47631</t>
+        </is>
+      </c>
+      <c r="F172" s="0" t="inlineStr">
+        <is>
+          <t>022169985</t>
+        </is>
+      </c>
+      <c r="G172" s="0" t="inlineStr">
+        <is>
+          <t>01122605741012</t>
+        </is>
+      </c>
+      <c r="H172" s="0" t="inlineStr">
+        <is>
+          <t>CASTRO AGUILAR</t>
+        </is>
+      </c>
+      <c r="I172" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS ADALBERTO</t>
+        </is>
+      </c>
+      <c r="J172" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K172" s="0" t="inlineStr">
+        <is>
+          <t>65414440</t>
+        </is>
+      </c>
+      <c r="L172" s="0" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="M172" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>47652</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C173" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D173" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E173" s="0" t="inlineStr">
+        <is>
+          <t>sv-le47652</t>
+        </is>
+      </c>
+      <c r="F173" s="0" t="inlineStr">
+        <is>
+          <t>017998303</t>
+        </is>
+      </c>
+      <c r="G173" s="0" t="inlineStr">
+        <is>
+          <t>06142103701059</t>
+        </is>
+      </c>
+      <c r="H173" s="0" t="inlineStr">
+        <is>
+          <t>LEMUS ESCALANTE</t>
+        </is>
+      </c>
+      <c r="I173" s="0" t="inlineStr">
+        <is>
+          <t>ERIC LOMBARDO</t>
+        </is>
+      </c>
+      <c r="J173" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K173" s="0" t="inlineStr">
+        <is>
+          <t>62849154</t>
+        </is>
+      </c>
+      <c r="L173" s="0" t="inlineStr">
+        <is>
+          <t>132.80</t>
+        </is>
+      </c>
+      <c r="M173" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>47654</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D174" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E174" s="0" t="inlineStr">
+        <is>
+          <t>sv-le47654</t>
+        </is>
+      </c>
+      <c r="F174" s="0" t="inlineStr">
+        <is>
+          <t>019451365</t>
+        </is>
+      </c>
+      <c r="G174" s="0" t="inlineStr">
+        <is>
+          <t>06141810711153</t>
+        </is>
+      </c>
+      <c r="H174" s="0" t="inlineStr">
+        <is>
+          <t>LOPEZ DE CARDOZA</t>
+        </is>
+      </c>
+      <c r="I174" s="0" t="inlineStr">
+        <is>
+          <t>EVELYN ELIZABETH</t>
+        </is>
+      </c>
+      <c r="J174" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K174" s="0" t="inlineStr">
+        <is>
+          <t>78332389</t>
+        </is>
+      </c>
+      <c r="L174" s="0" t="inlineStr">
+        <is>
+          <t>183.40</t>
+        </is>
+      </c>
+      <c r="M174" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>47655</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D175" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E175" s="0" t="inlineStr">
+        <is>
+          <t>sv-mm47655</t>
+        </is>
+      </c>
+      <c r="F175" s="0" t="inlineStr">
+        <is>
+          <t>023262697</t>
+        </is>
+      </c>
+      <c r="G175" s="0" t="inlineStr">
+        <is>
+          <t>06141706681145</t>
+        </is>
+      </c>
+      <c r="H175" s="0" t="inlineStr">
+        <is>
+          <t>MELARA CASTILLO</t>
+        </is>
+      </c>
+      <c r="I175" s="0" t="inlineStr">
+        <is>
+          <t>MARITZA DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="J175" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K175" s="0" t="inlineStr">
+        <is>
+          <t>78332541</t>
+        </is>
+      </c>
+      <c r="L175" s="0" t="inlineStr">
+        <is>
+          <t>214.60</t>
+        </is>
+      </c>
+      <c r="M175" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>47657</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C176" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D176" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E176" s="0" t="inlineStr">
+        <is>
+          <t>sv-dr47657</t>
+        </is>
+      </c>
+      <c r="F176" s="0" t="inlineStr">
+        <is>
+          <t>008644581</t>
+        </is>
+      </c>
+      <c r="G176" s="0" t="inlineStr">
+        <is>
+          <t>03120503650014</t>
+        </is>
+      </c>
+      <c r="H176" s="0" t="inlineStr">
+        <is>
+          <t>DIAZ DE CORVERA</t>
+        </is>
+      </c>
+      <c r="I176" s="0" t="inlineStr">
+        <is>
+          <t>ROSSANA ELISABETH</t>
+        </is>
+      </c>
+      <c r="J176" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K176" s="0" t="inlineStr">
+        <is>
+          <t>74575307</t>
+        </is>
+      </c>
+      <c r="L176" s="0" t="inlineStr">
+        <is>
+          <t>283.80</t>
+        </is>
+      </c>
+      <c r="M176" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>47658</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C177" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D177" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E177" s="0" t="inlineStr">
+        <is>
+          <t>sv-em47658</t>
+        </is>
+      </c>
+      <c r="F177" s="0" t="inlineStr">
+        <is>
+          <t>003749849</t>
+        </is>
+      </c>
+      <c r="G177" s="0" t="inlineStr">
+        <is>
+          <t>06190301791017</t>
+        </is>
+      </c>
+      <c r="H177" s="0" t="inlineStr">
+        <is>
+          <t>ERAZO VASQUEZ</t>
+        </is>
+      </c>
+      <c r="I177" s="0" t="inlineStr">
+        <is>
+          <t>MARVIN VITELIO</t>
+        </is>
+      </c>
+      <c r="J177" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K177" s="0" t="inlineStr">
+        <is>
+          <t>77865956</t>
+        </is>
+      </c>
+      <c r="L177" s="0" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="M177" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>47659</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C178" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D178" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E178" s="0" t="inlineStr">
+        <is>
+          <t>sv-jj47659</t>
+        </is>
+      </c>
+      <c r="F178" s="0" t="inlineStr">
+        <is>
+          <t>005574868</t>
+        </is>
+      </c>
+      <c r="G178" s="0" t="inlineStr">
+        <is>
+          <t>02032303831017</t>
+        </is>
+      </c>
+      <c r="H178" s="0" t="inlineStr">
+        <is>
+          <t>JIMENEZ PINTIN</t>
+        </is>
+      </c>
+      <c r="I178" s="0" t="inlineStr">
+        <is>
+          <t>JOSE RODOLFO</t>
+        </is>
+      </c>
+      <c r="J178" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K178" s="0" t="inlineStr">
+        <is>
+          <t>62634944</t>
+        </is>
+      </c>
+      <c r="L178" s="0" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="M178" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>47660</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C179" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D179" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E179" s="0" t="inlineStr">
+        <is>
+          <t>sv-gm47660</t>
+        </is>
+      </c>
+      <c r="F179" s="0" t="inlineStr">
+        <is>
+          <t>011299272</t>
+        </is>
+      </c>
+      <c r="G179" s="0" t="inlineStr">
+        <is>
+          <t>08051205721013</t>
+        </is>
+      </c>
+      <c r="H179" s="0" t="inlineStr">
+        <is>
+          <t>GRANDE CASTELLANOS</t>
+        </is>
+      </c>
+      <c r="I179" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL ENRIQUE</t>
+        </is>
+      </c>
+      <c r="J179" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K179" s="0" t="inlineStr">
+        <is>
+          <t>62845726</t>
+        </is>
+      </c>
+      <c r="L179" s="0" t="inlineStr">
+        <is>
+          <t>186.20</t>
+        </is>
+      </c>
+      <c r="M179" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>47661</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C180" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D180" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E180" s="0" t="inlineStr">
+        <is>
+          <t>sv-ap47661</t>
+        </is>
+      </c>
+      <c r="F180" s="0" t="inlineStr">
+        <is>
+          <t>034079691</t>
+        </is>
+      </c>
+      <c r="G180" s="0" t="inlineStr">
+        <is>
+          <t>06090612851027</t>
+        </is>
+      </c>
+      <c r="H180" s="0" t="inlineStr">
+        <is>
+          <t>AMAYA ORTEGA</t>
+        </is>
+      </c>
+      <c r="I180" s="0" t="inlineStr">
+        <is>
+          <t>PEDRO ALFONSO</t>
+        </is>
+      </c>
+      <c r="J180" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K180" s="0" t="inlineStr">
+        <is>
+          <t>73910697</t>
+        </is>
+      </c>
+      <c r="L180" s="0" t="inlineStr">
+        <is>
+          <t>308.00</t>
+        </is>
+      </c>
+      <c r="M180" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>47662</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C181" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D181" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E181" s="0" t="inlineStr">
+        <is>
+          <t>sv-lj47662</t>
+        </is>
+      </c>
+      <c r="F181" s="0" t="inlineStr">
+        <is>
+          <t>039759694</t>
+        </is>
+      </c>
+      <c r="G181" s="0" t="inlineStr">
+        <is>
+          <t>06122408881013</t>
+        </is>
+      </c>
+      <c r="H181" s="0" t="inlineStr">
+        <is>
+          <t>LOPEZ URQUILLA</t>
+        </is>
+      </c>
+      <c r="I181" s="0" t="inlineStr">
+        <is>
+          <t>JORGE MATEO</t>
+        </is>
+      </c>
+      <c r="J181" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K181" s="0" t="inlineStr">
+        <is>
+          <t>78326391</t>
+        </is>
+      </c>
+      <c r="L181" s="0" t="inlineStr">
+        <is>
+          <t>205.80</t>
+        </is>
+      </c>
+      <c r="M181" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>47664</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C182" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D182" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E182" s="0" t="inlineStr">
+        <is>
+          <t>sv-rc47664</t>
+        </is>
+      </c>
+      <c r="F182" s="0" t="inlineStr">
+        <is>
+          <t>005693719</t>
+        </is>
+      </c>
+      <c r="G182" s="0" t="inlineStr">
+        <is>
+          <t>06140203831321</t>
+        </is>
+      </c>
+      <c r="H182" s="0" t="inlineStr">
+        <is>
+          <t>ROSALES MACHADO</t>
+        </is>
+      </c>
+      <c r="I182" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS RODOLFO</t>
+        </is>
+      </c>
+      <c r="J182" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K182" s="0" t="inlineStr">
+        <is>
+          <t>65666345</t>
+        </is>
+      </c>
+      <c r="L182" s="0" t="inlineStr">
+        <is>
+          <t>367.60</t>
+        </is>
+      </c>
+      <c r="M182" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>47669</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D183" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E183" s="0" t="inlineStr">
+        <is>
+          <t>sv-ae47669</t>
+        </is>
+      </c>
+      <c r="F183" s="0" t="inlineStr">
+        <is>
+          <t>004536087</t>
+        </is>
+      </c>
+      <c r="G183" s="0" t="inlineStr">
+        <is>
+          <t>08113011611018</t>
+        </is>
+      </c>
+      <c r="H183" s="0" t="inlineStr">
+        <is>
+          <t>ALVARADO ALVAREZ</t>
+        </is>
+      </c>
+      <c r="I183" s="0" t="inlineStr">
+        <is>
+          <t>ESTANISLAO</t>
+        </is>
+      </c>
+      <c r="J183" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K183" s="0" t="inlineStr">
+        <is>
+          <t>79939305</t>
+        </is>
+      </c>
+      <c r="L183" s="0" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="M183" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>47670</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D184" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E184" s="0" t="inlineStr">
+        <is>
+          <t>sv-pc47670</t>
+        </is>
+      </c>
+      <c r="F184" s="0" t="inlineStr">
+        <is>
+          <t>010402432</t>
+        </is>
+      </c>
+      <c r="G184" s="0" t="inlineStr">
+        <is>
+          <t>07142305731026</t>
+        </is>
+      </c>
+      <c r="H184" s="0" t="inlineStr">
+        <is>
+          <t>PALACIOS DE GUARDADO</t>
+        </is>
+      </c>
+      <c r="I184" s="0" t="inlineStr">
+        <is>
+          <t>CRUZ MARINA</t>
+        </is>
+      </c>
+      <c r="J184" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K184" s="0" t="inlineStr">
+        <is>
+          <t>62039568</t>
+        </is>
+      </c>
+      <c r="L184" s="0" t="inlineStr">
+        <is>
+          <t>194.60</t>
+        </is>
+      </c>
+      <c r="M184" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>47671</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D185" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E185" s="0" t="inlineStr">
+        <is>
+          <t>sv-rm47671</t>
+        </is>
+      </c>
+      <c r="F185" s="0" t="inlineStr">
+        <is>
+          <t>007381512</t>
+        </is>
+      </c>
+      <c r="G185" s="0" t="inlineStr">
+        <is>
+          <t>06143105701141</t>
+        </is>
+      </c>
+      <c r="H185" s="0" t="inlineStr">
+        <is>
+          <t>RIVERA MEDRANO</t>
+        </is>
+      </c>
+      <c r="I185" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL ALFREDO</t>
+        </is>
+      </c>
+      <c r="J185" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K185" s="0" t="inlineStr">
+        <is>
+          <t>71895007</t>
+        </is>
+      </c>
+      <c r="L185" s="0" t="inlineStr">
+        <is>
+          <t>302.80</t>
+        </is>
+      </c>
+      <c r="M185" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>47672</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D186" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E186" s="0" t="inlineStr">
+        <is>
+          <t>sv-al47672</t>
+        </is>
+      </c>
+      <c r="F186" s="0" t="inlineStr">
+        <is>
+          <t>004928389</t>
+        </is>
+      </c>
+      <c r="G186" s="0" t="inlineStr">
+        <is>
+          <t>02100203821052</t>
+        </is>
+      </c>
+      <c r="H186" s="0" t="inlineStr">
+        <is>
+          <t>ALVAREZ HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="I186" s="0" t="inlineStr">
+        <is>
+          <t>LUIS ALONSO</t>
+        </is>
+      </c>
+      <c r="J186" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K186" s="0" t="inlineStr">
+        <is>
+          <t>76631438</t>
+        </is>
+      </c>
+      <c r="L186" s="0" t="inlineStr">
+        <is>
+          <t>301.80</t>
+        </is>
+      </c>
+      <c r="M186" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>47674</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D187" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E187" s="0" t="inlineStr">
+        <is>
+          <t>sv-ar47674</t>
+        </is>
+      </c>
+      <c r="F187" s="0" t="inlineStr">
+        <is>
+          <t>027572002</t>
+        </is>
+      </c>
+      <c r="G187" s="0" t="inlineStr">
+        <is>
+          <t>01080712811010</t>
+        </is>
+      </c>
+      <c r="H187" s="0" t="inlineStr">
+        <is>
+          <t>AYALA SARMIENTO</t>
+        </is>
+      </c>
+      <c r="I187" s="0" t="inlineStr">
+        <is>
+          <t>REYNALDA EMILIA</t>
+        </is>
+      </c>
+      <c r="J187" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K187" s="0" t="inlineStr">
+        <is>
+          <t>65291430</t>
+        </is>
+      </c>
+      <c r="L187" s="0" t="inlineStr">
+        <is>
+          <t>339.60</t>
+        </is>
+      </c>
+      <c r="M187" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>47675</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D188" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E188" s="0" t="inlineStr">
+        <is>
+          <t>sv-lj47675</t>
+        </is>
+      </c>
+      <c r="F188" s="0" t="inlineStr">
+        <is>
+          <t>034541664</t>
+        </is>
+      </c>
+      <c r="G188" s="0" t="inlineStr">
+        <is>
+          <t>08212801801052</t>
+        </is>
+      </c>
+      <c r="H188" s="0" t="inlineStr">
+        <is>
+          <t>LOPEZ ROMERO</t>
+        </is>
+      </c>
+      <c r="I188" s="0" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO</t>
+        </is>
+      </c>
+      <c r="J188" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K188" s="0" t="inlineStr">
+        <is>
+          <t>71146362</t>
+        </is>
+      </c>
+      <c r="L188" s="0" t="inlineStr">
+        <is>
+          <t>118.40</t>
+        </is>
+      </c>
+      <c r="M188" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>47678</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D189" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E189" s="0" t="inlineStr">
+        <is>
+          <t>sv-sr47678</t>
+        </is>
+      </c>
+      <c r="F189" s="0" t="inlineStr">
+        <is>
+          <t>005423740</t>
+        </is>
+      </c>
+      <c r="G189" s="0" t="inlineStr">
+        <is>
+          <t>02101501500022</t>
+        </is>
+      </c>
+      <c r="H189" s="0" t="inlineStr">
+        <is>
+          <t>SILIEZAR SALINAS</t>
+        </is>
+      </c>
+      <c r="I189" s="0" t="inlineStr">
+        <is>
+          <t>RICARDO ANTONIO</t>
+        </is>
+      </c>
+      <c r="J189" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K189" s="0" t="inlineStr">
+        <is>
+          <t>62930678</t>
+        </is>
+      </c>
+      <c r="L189" s="0" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="M189" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>47681</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E190" s="0" t="inlineStr">
+        <is>
+          <t>sv-oj47681</t>
+        </is>
+      </c>
+      <c r="F190" s="0" t="inlineStr">
+        <is>
+          <t>023747142</t>
+        </is>
+      </c>
+      <c r="G190" s="0" t="inlineStr">
+        <is>
+          <t>14160802600014</t>
+        </is>
+      </c>
+      <c r="H190" s="0" t="inlineStr">
+        <is>
+          <t>ORTEZ HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="I190" s="0" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO</t>
+        </is>
+      </c>
+      <c r="J190" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K190" s="0" t="inlineStr">
+        <is>
+          <t>66694982</t>
+        </is>
+      </c>
+      <c r="L190" s="0" t="inlineStr">
+        <is>
+          <t>110.80</t>
+        </is>
+      </c>
+      <c r="M190" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>47684</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E191" s="0" t="inlineStr">
+        <is>
+          <t>sv-hm47684</t>
+        </is>
+      </c>
+      <c r="F191" s="0" t="inlineStr">
+        <is>
+          <t>044322193</t>
+        </is>
+      </c>
+      <c r="G191" s="0" t="inlineStr">
+        <is>
+          <t>06141203911305</t>
+        </is>
+      </c>
+      <c r="H191" s="0" t="inlineStr">
+        <is>
+          <t>HERNANDEZ CANTARELY</t>
+        </is>
+      </c>
+      <c r="I191" s="0" t="inlineStr">
+        <is>
+          <t>MILTON SAMUEL</t>
+        </is>
+      </c>
+      <c r="J191" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K191" s="0" t="inlineStr">
+        <is>
+          <t>75812813</t>
+        </is>
+      </c>
+      <c r="L191" s="0" t="inlineStr">
+        <is>
+          <t>192.40</t>
+        </is>
+      </c>
+      <c r="M191" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>47685</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E192" s="0" t="inlineStr">
+        <is>
+          <t>sv-mh47685</t>
+        </is>
+      </c>
+      <c r="F192" s="0" t="inlineStr">
+        <is>
+          <t>029491286</t>
+        </is>
+      </c>
+      <c r="G192" s="0" t="inlineStr">
+        <is>
+          <t>05110805851013</t>
+        </is>
+      </c>
+      <c r="H192" s="0" t="inlineStr">
+        <is>
+          <t>MARTINEZ ARGUETA</t>
+        </is>
+      </c>
+      <c r="I192" s="0" t="inlineStr">
+        <is>
+          <t>HIRBINJ NOE</t>
+        </is>
+      </c>
+      <c r="J192" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K192" s="0" t="inlineStr">
+        <is>
+          <t>62350594</t>
+        </is>
+      </c>
+      <c r="L192" s="0" t="inlineStr">
+        <is>
+          <t>39.20</t>
+        </is>
+      </c>
+      <c r="M192" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>47686</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E193" s="0" t="inlineStr">
+        <is>
+          <t>sv-ba47686</t>
+        </is>
+      </c>
+      <c r="F193" s="0" t="inlineStr">
+        <is>
+          <t>001194832</t>
+        </is>
+      </c>
+      <c r="G193" s="0" t="inlineStr">
+        <is>
+          <t>06142512590060</t>
+        </is>
+      </c>
+      <c r="H193" s="0" t="inlineStr">
+        <is>
+          <t>BENITEZ ARGUETA</t>
+        </is>
+      </c>
+      <c r="I193" s="0" t="inlineStr">
+        <is>
+          <t>ANA IRMA</t>
+        </is>
+      </c>
+      <c r="J193" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K193" s="0" t="inlineStr">
+        <is>
+          <t>62705458</t>
+        </is>
+      </c>
+      <c r="L193" s="0" t="inlineStr">
+        <is>
+          <t>390.80</t>
+        </is>
+      </c>
+      <c r="M193" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>47687</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E194" s="0" t="inlineStr">
+        <is>
+          <t>sv-mo47687</t>
+        </is>
+      </c>
+      <c r="F194" s="0" t="inlineStr">
+        <is>
+          <t>021590515</t>
+        </is>
+      </c>
+      <c r="G194" s="0" t="inlineStr">
+        <is>
+          <t>06141810841120</t>
+        </is>
+      </c>
+      <c r="H194" s="0" t="inlineStr">
+        <is>
+          <t>MOREJON LOPEZ</t>
+        </is>
+      </c>
+      <c r="I194" s="0" t="inlineStr">
+        <is>
+          <t>OSMIN EDGARDO</t>
+        </is>
+      </c>
+      <c r="J194" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K194" s="0" t="inlineStr">
+        <is>
+          <t>62923539</t>
+        </is>
+      </c>
+      <c r="L194" s="0" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="M194" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>47689</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D195" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E195" s="0" t="inlineStr">
+        <is>
+          <t>sv-co47689</t>
+        </is>
+      </c>
+      <c r="F195" s="0" t="inlineStr">
+        <is>
+          <t>024733007</t>
+        </is>
+      </c>
+      <c r="G195" s="0" t="inlineStr">
+        <is>
+          <t>10102906650011</t>
+        </is>
+      </c>
+      <c r="H195" s="0" t="inlineStr">
+        <is>
+          <t>CARRILLO TURCIOS</t>
+        </is>
+      </c>
+      <c r="I195" s="0" t="inlineStr">
+        <is>
+          <t>OSCAR MAURICIO</t>
+        </is>
+      </c>
+      <c r="J195" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K195" s="0" t="inlineStr">
+        <is>
+          <t>62888115</t>
+        </is>
+      </c>
+      <c r="L195" s="0" t="inlineStr">
+        <is>
+          <t>227.80</t>
+        </is>
+      </c>
+      <c r="M195" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>47690</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E196" s="0" t="inlineStr">
+        <is>
+          <t>sv-af47690</t>
+        </is>
+      </c>
+      <c r="F196" s="0" t="inlineStr">
+        <is>
+          <t>012967399</t>
+        </is>
+      </c>
+      <c r="G196" s="0" t="inlineStr">
+        <is>
+          <t>02100406610027</t>
+        </is>
+      </c>
+      <c r="H196" s="0" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL</t>
+        </is>
+      </c>
+      <c r="I196" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="J196" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K196" s="0" t="inlineStr">
+        <is>
+          <t>78700337</t>
+        </is>
+      </c>
+      <c r="L196" s="0" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="M196" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>47692</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D197" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E197" s="0" t="inlineStr">
+        <is>
+          <t>sv-cf47692</t>
+        </is>
+      </c>
+      <c r="F197" s="0" t="inlineStr">
+        <is>
+          <t>016033299</t>
+        </is>
+      </c>
+      <c r="G197" s="0" t="inlineStr">
+        <is>
+          <t>06141610450026</t>
+        </is>
+      </c>
+      <c r="H197" s="0" t="inlineStr">
+        <is>
+          <t>CASTILLO GRIJALVA</t>
+        </is>
+      </c>
+      <c r="I197" s="0" t="inlineStr">
+        <is>
+          <t>FABIO ANTONIO</t>
+        </is>
+      </c>
+      <c r="J197" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K197" s="0" t="inlineStr">
+        <is>
+          <t>62226303</t>
+        </is>
+      </c>
+      <c r="L197" s="0" t="inlineStr">
+        <is>
+          <t>222.20</t>
+        </is>
+      </c>
+      <c r="M197" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>47697</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D198" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E198" s="0" t="inlineStr">
+        <is>
+          <t>sv-dm47697</t>
+        </is>
+      </c>
+      <c r="F198" s="0" t="inlineStr">
+        <is>
+          <t>007291791</t>
+        </is>
+      </c>
+      <c r="G198" s="0" t="inlineStr">
+        <is>
+          <t>06091504570018</t>
+        </is>
+      </c>
+      <c r="H198" s="0" t="inlineStr">
+        <is>
+          <t>DURAN RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="I198" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL HERIBERTO</t>
+        </is>
+      </c>
+      <c r="J198" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K198" s="0" t="inlineStr">
+        <is>
+          <t>78804336</t>
+        </is>
+      </c>
+      <c r="L198" s="0" t="inlineStr">
+        <is>
+          <t>352.40</t>
+        </is>
+      </c>
+      <c r="M198" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>47700</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D199" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E199" s="0" t="inlineStr">
+        <is>
+          <t>sv-mf47700</t>
+        </is>
+      </c>
+      <c r="F199" s="0" t="inlineStr">
+        <is>
+          <t>008891316</t>
+        </is>
+      </c>
+      <c r="G199" s="0" t="inlineStr">
+        <is>
+          <t>06140912580163</t>
+        </is>
+      </c>
+      <c r="H199" s="0" t="inlineStr">
+        <is>
+          <t>MIXCO LOPEZ</t>
+        </is>
+      </c>
+      <c r="I199" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO REMBERTO</t>
+        </is>
+      </c>
+      <c r="J199" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K199" s="0" t="inlineStr">
+        <is>
+          <t>62763473</t>
+        </is>
+      </c>
+      <c r="L199" s="0" t="inlineStr">
+        <is>
+          <t>155.20</t>
+        </is>
+      </c>
+      <c r="M199" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>47704</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D200" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E200" s="0" t="inlineStr">
+        <is>
+          <t>sv-ff47704</t>
+        </is>
+      </c>
+      <c r="F200" s="0" t="inlineStr">
+        <is>
+          <t>010547135</t>
+        </is>
+      </c>
+      <c r="G200" s="0" t="inlineStr">
+        <is>
+          <t>05110702821019</t>
+        </is>
+      </c>
+      <c r="H200" s="0" t="inlineStr">
+        <is>
+          <t>FLORES SARMIENTO</t>
+        </is>
+      </c>
+      <c r="I200" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO STEVE</t>
+        </is>
+      </c>
+      <c r="J200" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K200" s="0" t="inlineStr">
+        <is>
+          <t>79211113</t>
+        </is>
+      </c>
+      <c r="L200" s="0" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="M200" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>47705</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D201" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E201" s="0" t="inlineStr">
+        <is>
+          <t>sv-ns47705</t>
+        </is>
+      </c>
+      <c r="F201" s="0" t="inlineStr">
+        <is>
+          <t>001153995</t>
+        </is>
+      </c>
+      <c r="G201" s="0" t="inlineStr">
+        <is>
+          <t>06040906681017</t>
+        </is>
+      </c>
+      <c r="H201" s="0" t="inlineStr">
+        <is>
+          <t>NAVARRETE LEONOR</t>
+        </is>
+      </c>
+      <c r="I201" s="0" t="inlineStr">
+        <is>
+          <t>SIMEON</t>
+        </is>
+      </c>
+      <c r="J201" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K201" s="0" t="inlineStr">
+        <is>
+          <t>61242645</t>
+        </is>
+      </c>
+      <c r="L201" s="0" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="M201" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>47714</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D202" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E202" s="0" t="inlineStr">
+        <is>
+          <t>sv-me47714</t>
+        </is>
+      </c>
+      <c r="F202" s="0" t="inlineStr">
+        <is>
+          <t>004495689</t>
+        </is>
+      </c>
+      <c r="G202" s="0" t="inlineStr">
+        <is>
+          <t>10091002791017</t>
+        </is>
+      </c>
+      <c r="H202" s="0" t="inlineStr">
+        <is>
+          <t>MEJIA MOLINA</t>
+        </is>
+      </c>
+      <c r="I202" s="0" t="inlineStr">
+        <is>
+          <t>ERIC ALEXANDER</t>
+        </is>
+      </c>
+      <c r="J202" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K202" s="0" t="inlineStr">
+        <is>
+          <t>70831594</t>
+        </is>
+      </c>
+      <c r="L202" s="0" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="M202" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>47715</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E203" s="0" t="inlineStr">
+        <is>
+          <t>sv-hg47715</t>
+        </is>
+      </c>
+      <c r="F203" s="0" t="inlineStr">
+        <is>
+          <t>038162064</t>
+        </is>
+      </c>
+      <c r="G203" s="0" t="inlineStr">
+        <is>
+          <t>06142410871140</t>
+        </is>
+      </c>
+      <c r="H203" s="0" t="inlineStr">
+        <is>
+          <t>HERNANDEZ MEMBREÑO</t>
+        </is>
+      </c>
+      <c r="I203" s="0" t="inlineStr">
+        <is>
+          <t>GUSTAVO RAFAEL</t>
+        </is>
+      </c>
+      <c r="J203" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K203" s="0" t="inlineStr">
+        <is>
+          <t>71048822</t>
+        </is>
+      </c>
+      <c r="L203" s="0" t="inlineStr">
+        <is>
+          <t>363.00</t>
+        </is>
+      </c>
+      <c r="M203" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E204" s="0" t="inlineStr">
+        <is>
+          <t>sv-sm1054</t>
+        </is>
+      </c>
+      <c r="F204" s="0" t="inlineStr">
+        <is>
+          <t>024082919</t>
+        </is>
+      </c>
+      <c r="G204" s="0" t="inlineStr">
+        <is>
+          <t>02030510681014</t>
+        </is>
+      </c>
+      <c r="H204" s="0" t="inlineStr">
+        <is>
+          <t>SALAZAR DE SERMEÑO</t>
+        </is>
+      </c>
+      <c r="I204" s="0" t="inlineStr">
+        <is>
+          <t>MARITZA CAROLINA</t>
+        </is>
+      </c>
+      <c r="J204" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K204" s="0" t="inlineStr">
+        <is>
+          <t>64478435</t>
+        </is>
+      </c>
+      <c r="L204" s="0" t="inlineStr">
+        <is>
+          <t>733.60</t>
+        </is>
+      </c>
+      <c r="M204" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E205" s="0" t="inlineStr">
+        <is>
+          <t>sv-mn1421</t>
+        </is>
+      </c>
+      <c r="F205" s="0" t="inlineStr">
+        <is>
+          <t>014482905</t>
+        </is>
+      </c>
+      <c r="G205" s="0" t="inlineStr">
+        <is>
+          <t>02100107651014</t>
+        </is>
+      </c>
+      <c r="H205" s="0" t="inlineStr">
+        <is>
+          <t>MARROQUIN AREVALO</t>
+        </is>
+      </c>
+      <c r="I205" s="0" t="inlineStr">
+        <is>
+          <t>NESTOR MARIO</t>
+        </is>
+      </c>
+      <c r="J205" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K205" s="0" t="inlineStr">
+        <is>
+          <t>77407501</t>
+        </is>
+      </c>
+      <c r="L205" s="0" t="inlineStr">
+        <is>
+          <t>212.00</t>
+        </is>
+      </c>
+      <c r="M205" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>2164</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E206" s="0" t="inlineStr">
+        <is>
+          <t>sv-mg2164</t>
+        </is>
+      </c>
+      <c r="F206" s="0" t="inlineStr">
+        <is>
+          <t>018045721</t>
+        </is>
+      </c>
+      <c r="G206" s="0" t="inlineStr">
+        <is>
+          <t>02102502640021</t>
+        </is>
+      </c>
+      <c r="H206" s="0" t="inlineStr">
+        <is>
+          <t>MAYORGA RAMIREZ</t>
+        </is>
+      </c>
+      <c r="I206" s="0" t="inlineStr">
+        <is>
+          <t>GABRIEL ANTONIO</t>
+        </is>
+      </c>
+      <c r="J206" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K206" s="0" t="inlineStr">
+        <is>
+          <t>70705723</t>
+        </is>
+      </c>
+      <c r="L206" s="0" t="inlineStr">
+        <is>
+          <t>281.20</t>
+        </is>
+      </c>
+      <c r="M206" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>5909</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E207" s="0" t="inlineStr">
+        <is>
+          <t>sv-rr5909</t>
+        </is>
+      </c>
+      <c r="F207" s="0" t="inlineStr">
+        <is>
+          <t>033652129</t>
+        </is>
+      </c>
+      <c r="G207" s="0" t="inlineStr">
+        <is>
+          <t>06101509821073</t>
+        </is>
+      </c>
+      <c r="H207" s="0" t="inlineStr">
+        <is>
+          <t>RAMIREZ DEODANES</t>
+        </is>
+      </c>
+      <c r="I207" s="0" t="inlineStr">
+        <is>
+          <t>ROBERTO</t>
+        </is>
+      </c>
+      <c r="J207" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K207" s="0" t="inlineStr">
+        <is>
+          <t>75369733</t>
+        </is>
+      </c>
+      <c r="L207" s="0" t="inlineStr">
+        <is>
+          <t>143.60</t>
+        </is>
+      </c>
+      <c r="M207" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>6418</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E208" s="0" t="inlineStr">
+        <is>
+          <t>sv-lc6418</t>
+        </is>
+      </c>
+      <c r="F208" s="0" t="inlineStr">
+        <is>
+          <t>014216956</t>
+        </is>
+      </c>
+      <c r="G208" s="0" t="inlineStr">
+        <is>
+          <t>06140310620031</t>
+        </is>
+      </c>
+      <c r="H208" s="0" t="inlineStr">
+        <is>
+          <t>LOPEZ GUZMAN</t>
+        </is>
+      </c>
+      <c r="I208" s="0" t="inlineStr">
+        <is>
+          <t>CESAR MAURICIO</t>
+        </is>
+      </c>
+      <c r="J208" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K208" s="0" t="inlineStr">
+        <is>
+          <t>63055568</t>
+        </is>
+      </c>
+      <c r="L208" s="0" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="M208" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>8266</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C209" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D209" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E209" s="0" t="inlineStr">
+        <is>
+          <t>sv-ma8266</t>
+        </is>
+      </c>
+      <c r="F209" s="0" t="inlineStr">
+        <is>
+          <t>005598692</t>
+        </is>
+      </c>
+      <c r="G209" s="0" t="inlineStr">
+        <is>
+          <t>06141903671011</t>
+        </is>
+      </c>
+      <c r="H209" s="0" t="inlineStr">
+        <is>
+          <t>MENDEZ BENITEZ</t>
+        </is>
+      </c>
+      <c r="I209" s="0" t="inlineStr">
+        <is>
+          <t>ALICIA ORBELINA</t>
+        </is>
+      </c>
+      <c r="J209" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K209" s="0" t="inlineStr">
+        <is>
+          <t>70705856</t>
+        </is>
+      </c>
+      <c r="L209" s="0" t="inlineStr">
+        <is>
+          <t>297.80</t>
+        </is>
+      </c>
+      <c r="M209" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>9278</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C210" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D210" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E210" s="0" t="inlineStr">
+        <is>
+          <t>sv-nm9278</t>
+        </is>
+      </c>
+      <c r="F210" s="0" t="inlineStr">
+        <is>
+          <t>000900886</t>
+        </is>
+      </c>
+      <c r="G210" s="0" t="inlineStr">
+        <is>
+          <t>06142712600140</t>
+        </is>
+      </c>
+      <c r="H210" s="0" t="inlineStr">
+        <is>
+          <t>NUÑEZ GRANADOS</t>
+        </is>
+      </c>
+      <c r="I210" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL VICENTE</t>
+        </is>
+      </c>
+      <c r="J210" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K210" s="0" t="inlineStr">
+        <is>
+          <t>61317133</t>
+        </is>
+      </c>
+      <c r="L210" s="0" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="M210" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>13188</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C211" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D211" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E211" s="0" t="inlineStr">
+        <is>
+          <t>sv-pa13188</t>
+        </is>
+      </c>
+      <c r="F211" s="0" t="inlineStr">
+        <is>
+          <t>004669026</t>
+        </is>
+      </c>
+      <c r="G211" s="0" t="inlineStr">
+        <is>
+          <t>10112802731010</t>
+        </is>
+      </c>
+      <c r="H211" s="0" t="inlineStr">
+        <is>
+          <t>PINO MERINO</t>
+        </is>
+      </c>
+      <c r="I211" s="0" t="inlineStr">
+        <is>
+          <t>ANGEL VICTOR</t>
+        </is>
+      </c>
+      <c r="J211" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K211" s="0" t="inlineStr">
+        <is>
+          <t>79232040</t>
+        </is>
+      </c>
+      <c r="L211" s="0" t="inlineStr">
+        <is>
+          <t>256.80</t>
+        </is>
+      </c>
+      <c r="M211" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>15868</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C212" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D212" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E212" s="0" t="inlineStr">
+        <is>
+          <t>sv-bj15868</t>
+        </is>
+      </c>
+      <c r="F212" s="0" t="inlineStr">
+        <is>
+          <t>011671929</t>
+        </is>
+      </c>
+      <c r="G212" s="0" t="inlineStr">
+        <is>
+          <t>12172106580043</t>
+        </is>
+      </c>
+      <c r="H212" s="0" t="inlineStr">
+        <is>
+          <t>BENITEZ PARADA</t>
+        </is>
+      </c>
+      <c r="I212" s="0" t="inlineStr">
+        <is>
+          <t>JOSE ATILIO</t>
+        </is>
+      </c>
+      <c r="J212" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K212" s="0" t="inlineStr">
+        <is>
+          <t>62074477</t>
+        </is>
+      </c>
+      <c r="L212" s="0" t="inlineStr">
+        <is>
+          <t>308.60</t>
+        </is>
+      </c>
+      <c r="M212" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>19455</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D213" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E213" s="0" t="inlineStr">
+        <is>
+          <t>sv-ol19455</t>
+        </is>
+      </c>
+      <c r="F213" s="0" t="inlineStr">
+        <is>
+          <t>029212250</t>
+        </is>
+      </c>
+      <c r="G213" s="0" t="inlineStr">
+        <is>
+          <t>01032409661010</t>
+        </is>
+      </c>
+      <c r="H213" s="0" t="inlineStr">
+        <is>
+          <t>ORTIZ MEDINA</t>
+        </is>
+      </c>
+      <c r="I213" s="0" t="inlineStr">
+        <is>
+          <t>LUIS WALTER</t>
+        </is>
+      </c>
+      <c r="J213" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K213" s="0" t="inlineStr">
+        <is>
+          <t>62947980</t>
+        </is>
+      </c>
+      <c r="L213" s="0" t="inlineStr">
+        <is>
+          <t>251.80</t>
+        </is>
+      </c>
+      <c r="M213" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>19861</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D214" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E214" s="0" t="inlineStr">
+        <is>
+          <t>sv-pj19861</t>
+        </is>
+      </c>
+      <c r="F214" s="0" t="inlineStr">
+        <is>
+          <t>027267568</t>
+        </is>
+      </c>
+      <c r="G214" s="0" t="inlineStr">
+        <is>
+          <t>02101709640072</t>
+        </is>
+      </c>
+      <c r="H214" s="0" t="inlineStr">
+        <is>
+          <t>PINEDA MULATO</t>
+        </is>
+      </c>
+      <c r="I214" s="0" t="inlineStr">
+        <is>
+          <t>JOSE MAURICIO</t>
+        </is>
+      </c>
+      <c r="J214" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K214" s="0" t="inlineStr">
+        <is>
+          <t>62321846</t>
+        </is>
+      </c>
+      <c r="L214" s="0" t="inlineStr">
+        <is>
+          <t>369.80</t>
+        </is>
+      </c>
+      <c r="M214" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>20278</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D215" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E215" s="0" t="inlineStr">
+        <is>
+          <t>sv-pr20278</t>
+        </is>
+      </c>
+      <c r="F215" s="0" t="inlineStr">
+        <is>
+          <t>003748004</t>
+        </is>
+      </c>
+      <c r="G215" s="0" t="inlineStr">
+        <is>
+          <t>08212202520012</t>
+        </is>
+      </c>
+      <c r="H215" s="0" t="inlineStr">
+        <is>
+          <t>PINEDA DIAZ</t>
+        </is>
+      </c>
+      <c r="I215" s="0" t="inlineStr">
+        <is>
+          <t>RAUL ALBERTO</t>
+        </is>
+      </c>
+      <c r="J215" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K215" s="0" t="inlineStr">
+        <is>
+          <t>62787729</t>
+        </is>
+      </c>
+      <c r="L215" s="0" t="inlineStr">
+        <is>
+          <t>302.80</t>
+        </is>
+      </c>
+      <c r="M215" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>20831</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E216" s="0" t="inlineStr">
+        <is>
+          <t>sv-rm20831</t>
+        </is>
+      </c>
+      <c r="F216" s="0" t="inlineStr">
+        <is>
+          <t>001962687</t>
+        </is>
+      </c>
+      <c r="G216" s="0" t="inlineStr">
+        <is>
+          <t>03151801650015</t>
+        </is>
+      </c>
+      <c r="H216" s="0" t="inlineStr">
+        <is>
+          <t>RAMIREZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="I216" s="0" t="inlineStr">
+        <is>
+          <t>MAURICIO ERNESTO</t>
+        </is>
+      </c>
+      <c r="J216" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K216" s="0" t="inlineStr">
+        <is>
+          <t>62610010</t>
+        </is>
+      </c>
+      <c r="L216" s="0" t="inlineStr">
+        <is>
+          <t>149.20</t>
+        </is>
+      </c>
+      <c r="M216" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>22100</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E217" s="0" t="inlineStr">
+        <is>
+          <t>sv-df22100</t>
+        </is>
+      </c>
+      <c r="F217" s="0" t="inlineStr">
+        <is>
+          <t>023777456</t>
+        </is>
+      </c>
+      <c r="G217" s="0" t="inlineStr">
+        <is>
+          <t>06141806480052</t>
+        </is>
+      </c>
+      <c r="H217" s="0" t="inlineStr">
+        <is>
+          <t>DIAZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="I217" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO ENRIQUE</t>
+        </is>
+      </c>
+      <c r="J217" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K217" s="0" t="inlineStr">
+        <is>
+          <t>65236600</t>
+        </is>
+      </c>
+      <c r="L217" s="0" t="inlineStr">
+        <is>
+          <t>210.40</t>
+        </is>
+      </c>
+      <c r="M217" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>23670</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C218" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D218" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E218" s="0" t="inlineStr">
+        <is>
+          <t>sv-mh23670</t>
+        </is>
+      </c>
+      <c r="F218" s="0" t="inlineStr">
+        <is>
+          <t>023137509</t>
+        </is>
+      </c>
+      <c r="G218" s="0" t="inlineStr">
+        <is>
+          <t>11142601701015</t>
+        </is>
+      </c>
+      <c r="H218" s="0" t="inlineStr">
+        <is>
+          <t>MARTINEZ ORTIZ</t>
+        </is>
+      </c>
+      <c r="I218" s="0" t="inlineStr">
+        <is>
+          <t>HECTOR ANTONIO</t>
+        </is>
+      </c>
+      <c r="J218" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K218" s="0" t="inlineStr">
+        <is>
+          <t>66311175</t>
+        </is>
+      </c>
+      <c r="L218" s="0" t="inlineStr">
+        <is>
+          <t>141.80</t>
+        </is>
+      </c>
+      <c r="M218" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>25233</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C219" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D219" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E219" s="0" t="inlineStr">
+        <is>
+          <t>sv-mj25233</t>
+        </is>
+      </c>
+      <c r="F219" s="0" t="inlineStr">
+        <is>
+          <t>024353378</t>
+        </is>
+      </c>
+      <c r="G219" s="0" t="inlineStr">
+        <is>
+          <t>06141612640130</t>
+        </is>
+      </c>
+      <c r="H219" s="0" t="inlineStr">
+        <is>
+          <t>MIRANDA QUINTANILLA</t>
+        </is>
+      </c>
+      <c r="I219" s="0" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO</t>
+        </is>
+      </c>
+      <c r="J219" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K219" s="0" t="inlineStr">
+        <is>
+          <t>62729067</t>
+        </is>
+      </c>
+      <c r="L219" s="0" t="inlineStr">
+        <is>
+          <t>214.40</t>
+        </is>
+      </c>
+      <c r="M219" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>25309</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C220" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D220" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E220" s="0" t="inlineStr">
+        <is>
+          <t>sv-ge25309</t>
+        </is>
+      </c>
+      <c r="F220" s="0" t="inlineStr">
+        <is>
+          <t>025756545</t>
+        </is>
+      </c>
+      <c r="G220" s="0" t="inlineStr">
+        <is>
+          <t>14072012811016</t>
+        </is>
+      </c>
+      <c r="H220" s="0" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="I220" s="0" t="inlineStr">
+        <is>
+          <t>EDWIN JOVANY</t>
+        </is>
+      </c>
+      <c r="J220" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K220" s="0" t="inlineStr">
+        <is>
+          <t>74100034</t>
+        </is>
+      </c>
+      <c r="L220" s="0" t="inlineStr">
+        <is>
+          <t>163.80</t>
+        </is>
+      </c>
+      <c r="M220" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>30105</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C221" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D221" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E221" s="0" t="inlineStr">
+        <is>
+          <t>sv-mj30105</t>
+        </is>
+      </c>
+      <c r="F221" s="0" t="inlineStr">
+        <is>
+          <t>006305814</t>
+        </is>
+      </c>
+      <c r="G221" s="0" t="inlineStr">
+        <is>
+          <t>06142202811036</t>
+        </is>
+      </c>
+      <c r="H221" s="0" t="inlineStr">
+        <is>
+          <t>MARROQUIN MARROQUIN</t>
+        </is>
+      </c>
+      <c r="I221" s="0" t="inlineStr">
+        <is>
+          <t>JAIME RAUL</t>
+        </is>
+      </c>
+      <c r="J221" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K221" s="0" t="inlineStr">
+        <is>
+          <t>79767136</t>
+        </is>
+      </c>
+      <c r="L221" s="0" t="inlineStr">
+        <is>
+          <t>260.20</t>
+        </is>
+      </c>
+      <c r="M221" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>42266</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C222" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D222" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E222" s="0" t="inlineStr">
+        <is>
+          <t>sv-gc42266</t>
+        </is>
+      </c>
+      <c r="F222" s="0" t="inlineStr">
+        <is>
+          <t>015646170</t>
+        </is>
+      </c>
+      <c r="G222" s="0" t="inlineStr">
+        <is>
+          <t>05111211811026</t>
+        </is>
+      </c>
+      <c r="H222" s="0" t="inlineStr">
+        <is>
+          <t>GHIRINGHELLO ROSALES</t>
+        </is>
+      </c>
+      <c r="I222" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS RICARDO</t>
+        </is>
+      </c>
+      <c r="J222" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K222" s="0" t="inlineStr">
+        <is>
+          <t>72471706</t>
+        </is>
+      </c>
+      <c r="L222" s="0" t="inlineStr">
+        <is>
+          <t>214.20</t>
+        </is>
+      </c>
+      <c r="M222" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>47519</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C223" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D223" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E223" s="0" t="inlineStr">
+        <is>
+          <t>sv-gs47519</t>
+        </is>
+      </c>
+      <c r="F223" s="0" t="inlineStr">
+        <is>
+          <t>008298762</t>
+        </is>
+      </c>
+      <c r="G223" s="0" t="inlineStr">
+        <is>
+          <t>10100303620011</t>
+        </is>
+      </c>
+      <c r="H223" s="0" t="inlineStr">
+        <is>
+          <t>GUZMAN SAMAYOA</t>
+        </is>
+      </c>
+      <c r="I223" s="0" t="inlineStr">
+        <is>
+          <t>SARA LORENA</t>
+        </is>
+      </c>
+      <c r="J223" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K223" s="0" t="inlineStr">
+        <is>
+          <t>62846340</t>
+        </is>
+      </c>
+      <c r="L223" s="0" t="inlineStr">
+        <is>
+          <t>384.20</t>
+        </is>
+      </c>
+      <c r="M223" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>47595</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D224" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E224" s="0" t="inlineStr">
+        <is>
+          <t>sv-gm47595</t>
+        </is>
+      </c>
+      <c r="F224" s="0" t="inlineStr">
+        <is>
+          <t>018904967</t>
+        </is>
+      </c>
+      <c r="G224" s="0" t="inlineStr">
+        <is>
+          <t>05022502510015</t>
+        </is>
+      </c>
+      <c r="H224" s="0" t="inlineStr">
+        <is>
+          <t>GUARDADO</t>
+        </is>
+      </c>
+      <c r="I224" s="0" t="inlineStr">
+        <is>
+          <t>MARIO</t>
+        </is>
+      </c>
+      <c r="J224" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K224" s="0" t="inlineStr">
+        <is>
+          <t>79289424</t>
+        </is>
+      </c>
+      <c r="L224" s="0" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="M224" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>47598</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D225" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E225" s="0" t="inlineStr">
+        <is>
+          <t>sv-cr47598</t>
+        </is>
+      </c>
+      <c r="F225" s="0" t="inlineStr">
+        <is>
+          <t>025933113</t>
+        </is>
+      </c>
+      <c r="G225" s="0" t="inlineStr">
+        <is>
+          <t>06142008540032</t>
+        </is>
+      </c>
+      <c r="H225" s="0" t="inlineStr">
+        <is>
+          <t>CRUZ GUZMAN</t>
+        </is>
+      </c>
+      <c r="I225" s="0" t="inlineStr">
+        <is>
+          <t>ROSA MARGARITA</t>
+        </is>
+      </c>
+      <c r="J225" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K225" s="0" t="inlineStr">
+        <is>
+          <t>62437362</t>
+        </is>
+      </c>
+      <c r="L225" s="0" t="inlineStr">
+        <is>
+          <t>363.40</t>
+        </is>
+      </c>
+      <c r="M225" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>47627</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D226" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E226" s="0" t="inlineStr">
+        <is>
+          <t>sv-me47627</t>
+        </is>
+      </c>
+      <c r="F226" s="0" t="inlineStr">
+        <is>
+          <t>024544296</t>
+        </is>
+      </c>
+      <c r="G226" s="0" t="inlineStr">
+        <is>
+          <t>06072702650017</t>
+        </is>
+      </c>
+      <c r="H226" s="0" t="inlineStr">
+        <is>
+          <t>MARROQUIN AMAYA</t>
+        </is>
+      </c>
+      <c r="I226" s="0" t="inlineStr">
+        <is>
+          <t>EVELYN DE LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="J226" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K226" s="0" t="inlineStr">
+        <is>
+          <t>70704632</t>
+        </is>
+      </c>
+      <c r="L226" s="0" t="inlineStr">
+        <is>
+          <t>395.80</t>
+        </is>
+      </c>
+      <c r="M226" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>47630</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D227" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E227" s="0" t="inlineStr">
+        <is>
+          <t>sv-sr47630</t>
+        </is>
+      </c>
+      <c r="F227" s="0" t="inlineStr">
+        <is>
+          <t>004240783</t>
+        </is>
+      </c>
+      <c r="G227" s="0" t="inlineStr">
+        <is>
+          <t>10080502561016</t>
+        </is>
+      </c>
+      <c r="H227" s="0" t="inlineStr">
+        <is>
+          <t>SANCHEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="I227" s="0" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="J227" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K227" s="0" t="inlineStr">
+        <is>
+          <t>74398467</t>
+        </is>
+      </c>
+      <c r="L227" s="0" t="inlineStr">
+        <is>
+          <t>185.20</t>
+        </is>
+      </c>
+      <c r="M227" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>47663</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C228" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D228" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E228" s="0" t="inlineStr">
+        <is>
+          <t>sv-fr47663</t>
+        </is>
+      </c>
+      <c r="F228" s="0" t="inlineStr">
+        <is>
+          <t>010757691</t>
+        </is>
+      </c>
+      <c r="G228" s="0" t="inlineStr">
+        <is>
+          <t>06142405600136</t>
+        </is>
+      </c>
+      <c r="H228" s="0" t="inlineStr">
+        <is>
+          <t>FONG HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="I228" s="0" t="inlineStr">
+        <is>
+          <t>ROBERTO ENRIQUE</t>
+        </is>
+      </c>
+      <c r="J228" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K228" s="0" t="inlineStr">
+        <is>
+          <t>62823380</t>
+        </is>
+      </c>
+      <c r="L228" s="0" t="inlineStr">
+        <is>
+          <t>361.80</t>
+        </is>
+      </c>
+      <c r="M228" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>47665</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C229" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D229" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E229" s="0" t="inlineStr">
+        <is>
+          <t>sv-cj47665</t>
+        </is>
+      </c>
+      <c r="F229" s="0" t="inlineStr">
+        <is>
+          <t>003719006</t>
+        </is>
+      </c>
+      <c r="G229" s="0" t="inlineStr">
+        <is>
+          <t>05150802480019</t>
+        </is>
+      </c>
+      <c r="H229" s="0" t="inlineStr">
+        <is>
+          <t>CASTILLO MEZQUITA</t>
+        </is>
+      </c>
+      <c r="I229" s="0" t="inlineStr">
+        <is>
+          <t>JUAN JUVENCIO</t>
+        </is>
+      </c>
+      <c r="J229" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K229" s="0" t="inlineStr">
+        <is>
+          <t>78514479</t>
+        </is>
+      </c>
+      <c r="L229" s="0" t="inlineStr">
+        <is>
+          <t>171.60</t>
+        </is>
+      </c>
+      <c r="M229" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>47673</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C230" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D230" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E230" s="0" t="inlineStr">
+        <is>
+          <t>sv-lr47673</t>
+        </is>
+      </c>
+      <c r="F230" s="0" t="inlineStr">
+        <is>
+          <t>020540517</t>
+        </is>
+      </c>
+      <c r="G230" s="0" t="inlineStr">
+        <is>
+          <t>06141909811370</t>
+        </is>
+      </c>
+      <c r="H230" s="0" t="inlineStr">
+        <is>
+          <t>LARA CACERES</t>
+        </is>
+      </c>
+      <c r="I230" s="0" t="inlineStr">
+        <is>
+          <t>RICARDO ERNESTO</t>
+        </is>
+      </c>
+      <c r="J230" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K230" s="0" t="inlineStr">
+        <is>
+          <t>79857656</t>
+        </is>
+      </c>
+      <c r="L230" s="0" t="inlineStr">
+        <is>
+          <t>223.40</t>
+        </is>
+      </c>
+      <c r="M230" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>47676</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C231" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D231" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E231" s="0" t="inlineStr">
+        <is>
+          <t>sv-rj47676</t>
+        </is>
+      </c>
+      <c r="F231" s="0" t="inlineStr">
+        <is>
+          <t>008816594</t>
+        </is>
+      </c>
+      <c r="G231" s="0" t="inlineStr">
+        <is>
+          <t>05120304701017</t>
+        </is>
+      </c>
+      <c r="H231" s="0" t="inlineStr">
+        <is>
+          <t>RAMOS PEREZ</t>
+        </is>
+      </c>
+      <c r="I231" s="0" t="inlineStr">
+        <is>
+          <t>JACOBO</t>
+        </is>
+      </c>
+      <c r="J231" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K231" s="0" t="inlineStr">
+        <is>
+          <t>71651054</t>
+        </is>
+      </c>
+      <c r="L231" s="0" t="inlineStr">
+        <is>
+          <t>184.40</t>
+        </is>
+      </c>
+      <c r="M231" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>47677</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C232" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D232" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E232" s="0" t="inlineStr">
+        <is>
+          <t>sv-pg47677</t>
+        </is>
+      </c>
+      <c r="F232" s="0" t="inlineStr">
+        <is>
+          <t>009276454</t>
+        </is>
+      </c>
+      <c r="G232" s="0" t="inlineStr">
+        <is>
+          <t>05222004721013</t>
+        </is>
+      </c>
+      <c r="H232" s="0" t="inlineStr">
+        <is>
+          <t>POCASANGRE HUEZO</t>
+        </is>
+      </c>
+      <c r="I232" s="0" t="inlineStr">
+        <is>
+          <t>GUILLERMO</t>
+        </is>
+      </c>
+      <c r="J232" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K232" s="0" t="inlineStr">
+        <is>
+          <t>77894991</t>
+        </is>
+      </c>
+      <c r="L232" s="0" t="inlineStr">
+        <is>
+          <t>272.80</t>
+        </is>
+      </c>
+      <c r="M232" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>47679</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C233" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D233" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E233" s="0" t="inlineStr">
+        <is>
+          <t>sv-rj47679</t>
+        </is>
+      </c>
+      <c r="F233" s="0" t="inlineStr">
+        <is>
+          <t>000883872</t>
+        </is>
+      </c>
+      <c r="G233" s="0" t="inlineStr">
+        <is>
+          <t>14162712781010</t>
+        </is>
+      </c>
+      <c r="H233" s="0" t="inlineStr">
+        <is>
+          <t>REYES SALAZAR</t>
+        </is>
+      </c>
+      <c r="I233" s="0" t="inlineStr">
+        <is>
+          <t>JUAN DAVID</t>
+        </is>
+      </c>
+      <c r="J233" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K233" s="0" t="inlineStr">
+        <is>
+          <t>70710453</t>
+        </is>
+      </c>
+      <c r="L233" s="0" t="inlineStr">
+        <is>
+          <t>292.40</t>
+        </is>
+      </c>
+      <c r="M233" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>47682</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D234" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E234" s="0" t="inlineStr">
+        <is>
+          <t>sv-om47682</t>
+        </is>
+      </c>
+      <c r="F234" s="0" t="inlineStr">
+        <is>
+          <t>003565392</t>
+        </is>
+      </c>
+      <c r="G234" s="0" t="inlineStr">
+        <is>
+          <t>12172412781040</t>
+        </is>
+      </c>
+      <c r="H234" s="0" t="inlineStr">
+        <is>
+          <t>OLIVARES RUIZ</t>
+        </is>
+      </c>
+      <c r="I234" s="0" t="inlineStr">
+        <is>
+          <t>MARGARITA DE LA PAZ</t>
+        </is>
+      </c>
+      <c r="J234" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K234" s="0" t="inlineStr">
+        <is>
+          <t>66606154</t>
+        </is>
+      </c>
+      <c r="L234" s="0" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="M234" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>47683</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D235" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E235" s="0" t="inlineStr">
+        <is>
+          <t>sv-cb47683</t>
+        </is>
+      </c>
+      <c r="F235" s="0" t="inlineStr">
+        <is>
+          <t>010622294</t>
+        </is>
+      </c>
+      <c r="G235" s="0" t="inlineStr">
+        <is>
+          <t>11092505831024</t>
+        </is>
+      </c>
+      <c r="H235" s="0" t="inlineStr">
+        <is>
+          <t>CRUZ AMAYA</t>
+        </is>
+      </c>
+      <c r="I235" s="0" t="inlineStr">
+        <is>
+          <t>BLANCA MARIBEL</t>
+        </is>
+      </c>
+      <c r="J235" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K235" s="0" t="inlineStr">
+        <is>
+          <t>78866026</t>
+        </is>
+      </c>
+      <c r="L235" s="0" t="inlineStr">
+        <is>
+          <t>335.40</t>
+        </is>
+      </c>
+      <c r="M235" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>47691</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D236" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E236" s="0" t="inlineStr">
+        <is>
+          <t>sv-ud47691</t>
+        </is>
+      </c>
+      <c r="F236" s="0" t="inlineStr">
+        <is>
+          <t>008095449</t>
+        </is>
+      </c>
+      <c r="G236" s="0" t="inlineStr">
+        <is>
+          <t>14030711551011</t>
+        </is>
+      </c>
+      <c r="H236" s="0" t="inlineStr">
+        <is>
+          <t>UMANZOR DE RIVERA</t>
+        </is>
+      </c>
+      <c r="I236" s="0" t="inlineStr">
+        <is>
+          <t>DOLORES SUYAPA</t>
+        </is>
+      </c>
+      <c r="J236" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K236" s="0" t="inlineStr">
+        <is>
+          <t>62257198</t>
+        </is>
+      </c>
+      <c r="L236" s="0" t="inlineStr">
+        <is>
+          <t>368.80</t>
+        </is>
+      </c>
+      <c r="M236" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>47693</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D237" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E237" s="0" t="inlineStr">
+        <is>
+          <t>sv-mm47693</t>
+        </is>
+      </c>
+      <c r="F237" s="0" t="inlineStr">
+        <is>
+          <t>003104594</t>
+        </is>
+      </c>
+      <c r="G237" s="0" t="inlineStr">
+        <is>
+          <t>07022402530010</t>
+        </is>
+      </c>
+      <c r="H237" s="0" t="inlineStr">
+        <is>
+          <t>MEJIA</t>
+        </is>
+      </c>
+      <c r="I237" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL ANTONIO</t>
+        </is>
+      </c>
+      <c r="J237" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K237" s="0" t="inlineStr">
+        <is>
+          <t>62357596</t>
+        </is>
+      </c>
+      <c r="L237" s="0" t="inlineStr">
+        <is>
+          <t>189.80</t>
+        </is>
+      </c>
+      <c r="M237" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>47695</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C238" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D238" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E238" s="0" t="inlineStr">
+        <is>
+          <t>sv-qa47695</t>
+        </is>
+      </c>
+      <c r="F238" s="0" t="inlineStr">
+        <is>
+          <t>006196100</t>
+        </is>
+      </c>
+      <c r="G238" s="0" t="inlineStr">
+        <is>
+          <t>06142903580100</t>
+        </is>
+      </c>
+      <c r="H238" s="0" t="inlineStr">
+        <is>
+          <t>QUINTANILLA DE ZULETA</t>
+        </is>
+      </c>
+      <c r="I238" s="0" t="inlineStr">
+        <is>
+          <t>ANA DORA ALICIA</t>
+        </is>
+      </c>
+      <c r="J238" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K238" s="0" t="inlineStr">
+        <is>
+          <t>62716439</t>
+        </is>
+      </c>
+      <c r="L238" s="0" t="inlineStr">
+        <is>
+          <t>234.20</t>
+        </is>
+      </c>
+      <c r="M238" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>47710</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C239" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D239" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E239" s="0" t="inlineStr">
+        <is>
+          <t>sv-ch47710</t>
+        </is>
+      </c>
+      <c r="F239" s="0" t="inlineStr">
+        <is>
+          <t>016954788</t>
+        </is>
+      </c>
+      <c r="G239" s="0" t="inlineStr">
+        <is>
+          <t>13242208681012</t>
+        </is>
+      </c>
+      <c r="H239" s="0" t="inlineStr">
+        <is>
+          <t>CHACON ARGUETA</t>
+        </is>
+      </c>
+      <c r="I239" s="0" t="inlineStr">
+        <is>
+          <t>HECTOR MANUEL</t>
+        </is>
+      </c>
+      <c r="J239" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K239" s="0" t="inlineStr">
+        <is>
+          <t>77781096</t>
+        </is>
+      </c>
+      <c r="L239" s="0" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="M239" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>47711</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C240" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D240" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E240" s="0" t="inlineStr">
+        <is>
+          <t>sv-ms47711</t>
+        </is>
+      </c>
+      <c r="F240" s="0" t="inlineStr">
+        <is>
+          <t>043265819</t>
+        </is>
+      </c>
+      <c r="G240" s="0" t="inlineStr">
+        <is>
+          <t>11230112901016</t>
+        </is>
+      </c>
+      <c r="H240" s="0" t="inlineStr">
+        <is>
+          <t>MEDRANO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="I240" s="0" t="inlineStr">
+        <is>
+          <t>SAMUEL GERARDO</t>
+        </is>
+      </c>
+      <c r="J240" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K240" s="0" t="inlineStr">
+        <is>
+          <t>78692068</t>
+        </is>
+      </c>
+      <c r="L240" s="0" t="inlineStr">
+        <is>
+          <t>219.40</t>
+        </is>
+      </c>
+      <c r="M240" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>47712</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C241" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D241" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E241" s="0" t="inlineStr">
+        <is>
+          <t>sv-he47712</t>
+        </is>
+      </c>
+      <c r="F241" s="0" t="inlineStr">
+        <is>
+          <t>017719377</t>
+        </is>
+      </c>
+      <c r="G241" s="0" t="inlineStr">
+        <is>
+          <t>06140209801181</t>
+        </is>
+      </c>
+      <c r="H241" s="0" t="inlineStr">
+        <is>
+          <t>HERNANDEZ DURAN</t>
+        </is>
+      </c>
+      <c r="I241" s="0" t="inlineStr">
+        <is>
+          <t>ERICK STEFFAN</t>
+        </is>
+      </c>
+      <c r="J241" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K241" s="0" t="inlineStr">
+        <is>
+          <t>76955228</t>
+        </is>
+      </c>
+      <c r="L241" s="0" t="inlineStr">
+        <is>
+          <t>364.60</t>
+        </is>
+      </c>
+      <c r="M241" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C242" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D242" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E242" s="0" t="inlineStr">
+        <is>
+          <t>sv-sm1054</t>
+        </is>
+      </c>
+      <c r="F242" s="0" t="inlineStr">
+        <is>
+          <t>024082919</t>
+        </is>
+      </c>
+      <c r="G242" s="0" t="inlineStr">
+        <is>
+          <t>02030510681014</t>
+        </is>
+      </c>
+      <c r="H242" s="0" t="inlineStr">
+        <is>
+          <t>SALAZAR DE SERMEÑO</t>
+        </is>
+      </c>
+      <c r="I242" s="0" t="inlineStr">
+        <is>
+          <t>MARITZA CAROLINA</t>
+        </is>
+      </c>
+      <c r="J242" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K242" s="0" t="inlineStr">
+        <is>
+          <t>64478435</t>
+        </is>
+      </c>
+      <c r="L242" s="0" t="inlineStr">
+        <is>
+          <t>733.60</t>
+        </is>
+      </c>
+      <c r="M242" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C243" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D243" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E243" s="0" t="inlineStr">
+        <is>
+          <t>sv-mn1421</t>
+        </is>
+      </c>
+      <c r="F243" s="0" t="inlineStr">
+        <is>
+          <t>014482905</t>
+        </is>
+      </c>
+      <c r="G243" s="0" t="inlineStr">
+        <is>
+          <t>02100107651014</t>
+        </is>
+      </c>
+      <c r="H243" s="0" t="inlineStr">
+        <is>
+          <t>MARROQUIN AREVALO</t>
+        </is>
+      </c>
+      <c r="I243" s="0" t="inlineStr">
+        <is>
+          <t>NESTOR MARIO</t>
+        </is>
+      </c>
+      <c r="J243" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K243" s="0" t="inlineStr">
+        <is>
+          <t>77407501</t>
+        </is>
+      </c>
+      <c r="L243" s="0" t="inlineStr">
+        <is>
+          <t>212.00</t>
+        </is>
+      </c>
+      <c r="M243" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>2164</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D244" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E244" s="0" t="inlineStr">
+        <is>
+          <t>sv-mg2164</t>
+        </is>
+      </c>
+      <c r="F244" s="0" t="inlineStr">
+        <is>
+          <t>018045721</t>
+        </is>
+      </c>
+      <c r="G244" s="0" t="inlineStr">
+        <is>
+          <t>02102502640021</t>
+        </is>
+      </c>
+      <c r="H244" s="0" t="inlineStr">
+        <is>
+          <t>MAYORGA RAMIREZ</t>
+        </is>
+      </c>
+      <c r="I244" s="0" t="inlineStr">
+        <is>
+          <t>GABRIEL ANTONIO</t>
+        </is>
+      </c>
+      <c r="J244" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K244" s="0" t="inlineStr">
+        <is>
+          <t>70705723</t>
+        </is>
+      </c>
+      <c r="L244" s="0" t="inlineStr">
+        <is>
+          <t>281.20</t>
+        </is>
+      </c>
+      <c r="M244" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>5909</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D245" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E245" s="0" t="inlineStr">
+        <is>
+          <t>sv-rr5909</t>
+        </is>
+      </c>
+      <c r="F245" s="0" t="inlineStr">
+        <is>
+          <t>033652129</t>
+        </is>
+      </c>
+      <c r="G245" s="0" t="inlineStr">
+        <is>
+          <t>06101509821073</t>
+        </is>
+      </c>
+      <c r="H245" s="0" t="inlineStr">
+        <is>
+          <t>RAMIREZ DEODANES</t>
+        </is>
+      </c>
+      <c r="I245" s="0" t="inlineStr">
+        <is>
+          <t>ROBERTO</t>
+        </is>
+      </c>
+      <c r="J245" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K245" s="0" t="inlineStr">
+        <is>
+          <t>75369733</t>
+        </is>
+      </c>
+      <c r="L245" s="0" t="inlineStr">
+        <is>
+          <t>143.60</t>
+        </is>
+      </c>
+      <c r="M245" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>6418</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C246" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D246" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E246" s="0" t="inlineStr">
+        <is>
+          <t>sv-lc6418</t>
+        </is>
+      </c>
+      <c r="F246" s="0" t="inlineStr">
+        <is>
+          <t>014216956</t>
+        </is>
+      </c>
+      <c r="G246" s="0" t="inlineStr">
+        <is>
+          <t>06140310620031</t>
+        </is>
+      </c>
+      <c r="H246" s="0" t="inlineStr">
+        <is>
+          <t>LOPEZ GUZMAN</t>
+        </is>
+      </c>
+      <c r="I246" s="0" t="inlineStr">
+        <is>
+          <t>CESAR MAURICIO</t>
+        </is>
+      </c>
+      <c r="J246" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K246" s="0" t="inlineStr">
+        <is>
+          <t>63055568</t>
+        </is>
+      </c>
+      <c r="L246" s="0" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="M246" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>8266</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C247" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D247" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E247" s="0" t="inlineStr">
+        <is>
+          <t>sv-ma8266</t>
+        </is>
+      </c>
+      <c r="F247" s="0" t="inlineStr">
+        <is>
+          <t>005598692</t>
+        </is>
+      </c>
+      <c r="G247" s="0" t="inlineStr">
+        <is>
+          <t>06141903671011</t>
+        </is>
+      </c>
+      <c r="H247" s="0" t="inlineStr">
+        <is>
+          <t>MENDEZ BENITEZ</t>
+        </is>
+      </c>
+      <c r="I247" s="0" t="inlineStr">
+        <is>
+          <t>ALICIA ORBELINA</t>
+        </is>
+      </c>
+      <c r="J247" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K247" s="0" t="inlineStr">
+        <is>
+          <t>70705856</t>
+        </is>
+      </c>
+      <c r="L247" s="0" t="inlineStr">
+        <is>
+          <t>297.80</t>
+        </is>
+      </c>
+      <c r="M247" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>9278</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D248" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E248" s="0" t="inlineStr">
+        <is>
+          <t>sv-nm9278</t>
+        </is>
+      </c>
+      <c r="F248" s="0" t="inlineStr">
+        <is>
+          <t>000900886</t>
+        </is>
+      </c>
+      <c r="G248" s="0" t="inlineStr">
+        <is>
+          <t>06142712600140</t>
+        </is>
+      </c>
+      <c r="H248" s="0" t="inlineStr">
+        <is>
+          <t>NUÑEZ GRANADOS</t>
+        </is>
+      </c>
+      <c r="I248" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL VICENTE</t>
+        </is>
+      </c>
+      <c r="J248" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K248" s="0" t="inlineStr">
+        <is>
+          <t>61317133</t>
+        </is>
+      </c>
+      <c r="L248" s="0" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="M248" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>13188</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C249" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D249" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E249" s="0" t="inlineStr">
+        <is>
+          <t>sv-pa13188</t>
+        </is>
+      </c>
+      <c r="F249" s="0" t="inlineStr">
+        <is>
+          <t>004669026</t>
+        </is>
+      </c>
+      <c r="G249" s="0" t="inlineStr">
+        <is>
+          <t>10112802731010</t>
+        </is>
+      </c>
+      <c r="H249" s="0" t="inlineStr">
+        <is>
+          <t>PINO MERINO</t>
+        </is>
+      </c>
+      <c r="I249" s="0" t="inlineStr">
+        <is>
+          <t>ANGEL VICTOR</t>
+        </is>
+      </c>
+      <c r="J249" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K249" s="0" t="inlineStr">
+        <is>
+          <t>79232040</t>
+        </is>
+      </c>
+      <c r="L249" s="0" t="inlineStr">
+        <is>
+          <t>256.80</t>
+        </is>
+      </c>
+      <c r="M249" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>15868</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C250" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D250" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E250" s="0" t="inlineStr">
+        <is>
+          <t>sv-bj15868</t>
+        </is>
+      </c>
+      <c r="F250" s="0" t="inlineStr">
+        <is>
+          <t>011671929</t>
+        </is>
+      </c>
+      <c r="G250" s="0" t="inlineStr">
+        <is>
+          <t>12172106580043</t>
+        </is>
+      </c>
+      <c r="H250" s="0" t="inlineStr">
+        <is>
+          <t>BENITEZ PARADA</t>
+        </is>
+      </c>
+      <c r="I250" s="0" t="inlineStr">
+        <is>
+          <t>JOSE ATILIO</t>
+        </is>
+      </c>
+      <c r="J250" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K250" s="0" t="inlineStr">
+        <is>
+          <t>62074477</t>
+        </is>
+      </c>
+      <c r="L250" s="0" t="inlineStr">
+        <is>
+          <t>308.60</t>
+        </is>
+      </c>
+      <c r="M250" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>19455</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D251" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E251" s="0" t="inlineStr">
+        <is>
+          <t>sv-ol19455</t>
+        </is>
+      </c>
+      <c r="F251" s="0" t="inlineStr">
+        <is>
+          <t>029212250</t>
+        </is>
+      </c>
+      <c r="G251" s="0" t="inlineStr">
+        <is>
+          <t>01032409661010</t>
+        </is>
+      </c>
+      <c r="H251" s="0" t="inlineStr">
+        <is>
+          <t>ORTIZ MEDINA</t>
+        </is>
+      </c>
+      <c r="I251" s="0" t="inlineStr">
+        <is>
+          <t>LUIS WALTER</t>
+        </is>
+      </c>
+      <c r="J251" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K251" s="0" t="inlineStr">
+        <is>
+          <t>62947980</t>
+        </is>
+      </c>
+      <c r="L251" s="0" t="inlineStr">
+        <is>
+          <t>251.80</t>
+        </is>
+      </c>
+      <c r="M251" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>19861</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D252" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E252" s="0" t="inlineStr">
+        <is>
+          <t>sv-pj19861</t>
+        </is>
+      </c>
+      <c r="F252" s="0" t="inlineStr">
+        <is>
+          <t>027267568</t>
+        </is>
+      </c>
+      <c r="G252" s="0" t="inlineStr">
+        <is>
+          <t>02101709640072</t>
+        </is>
+      </c>
+      <c r="H252" s="0" t="inlineStr">
+        <is>
+          <t>PINEDA MULATO</t>
+        </is>
+      </c>
+      <c r="I252" s="0" t="inlineStr">
+        <is>
+          <t>JOSE MAURICIO</t>
+        </is>
+      </c>
+      <c r="J252" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K252" s="0" t="inlineStr">
+        <is>
+          <t>62321846</t>
+        </is>
+      </c>
+      <c r="L252" s="0" t="inlineStr">
+        <is>
+          <t>369.80</t>
+        </is>
+      </c>
+      <c r="M252" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>20278</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D253" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E253" s="0" t="inlineStr">
+        <is>
+          <t>sv-pr20278</t>
+        </is>
+      </c>
+      <c r="F253" s="0" t="inlineStr">
+        <is>
+          <t>003748004</t>
+        </is>
+      </c>
+      <c r="G253" s="0" t="inlineStr">
+        <is>
+          <t>08212202520012</t>
+        </is>
+      </c>
+      <c r="H253" s="0" t="inlineStr">
+        <is>
+          <t>PINEDA DIAZ</t>
+        </is>
+      </c>
+      <c r="I253" s="0" t="inlineStr">
+        <is>
+          <t>RAUL ALBERTO</t>
+        </is>
+      </c>
+      <c r="J253" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K253" s="0" t="inlineStr">
+        <is>
+          <t>62787729</t>
+        </is>
+      </c>
+      <c r="L253" s="0" t="inlineStr">
+        <is>
+          <t>302.80</t>
+        </is>
+      </c>
+      <c r="M253" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>20831</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E254" s="0" t="inlineStr">
+        <is>
+          <t>sv-rm20831</t>
+        </is>
+      </c>
+      <c r="F254" s="0" t="inlineStr">
+        <is>
+          <t>001962687</t>
+        </is>
+      </c>
+      <c r="G254" s="0" t="inlineStr">
+        <is>
+          <t>03151801650015</t>
+        </is>
+      </c>
+      <c r="H254" s="0" t="inlineStr">
+        <is>
+          <t>RAMIREZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="I254" s="0" t="inlineStr">
+        <is>
+          <t>MAURICIO ERNESTO</t>
+        </is>
+      </c>
+      <c r="J254" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K254" s="0" t="inlineStr">
+        <is>
+          <t>62610010</t>
+        </is>
+      </c>
+      <c r="L254" s="0" t="inlineStr">
+        <is>
+          <t>149.20</t>
+        </is>
+      </c>
+      <c r="M254" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>22100</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E255" s="0" t="inlineStr">
+        <is>
+          <t>sv-df22100</t>
+        </is>
+      </c>
+      <c r="F255" s="0" t="inlineStr">
+        <is>
+          <t>023777456</t>
+        </is>
+      </c>
+      <c r="G255" s="0" t="inlineStr">
+        <is>
+          <t>06141806480052</t>
+        </is>
+      </c>
+      <c r="H255" s="0" t="inlineStr">
+        <is>
+          <t>DIAZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="I255" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO ENRIQUE</t>
+        </is>
+      </c>
+      <c r="J255" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K255" s="0" t="inlineStr">
+        <is>
+          <t>65236600</t>
+        </is>
+      </c>
+      <c r="L255" s="0" t="inlineStr">
+        <is>
+          <t>210.40</t>
+        </is>
+      </c>
+      <c r="M255" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>23670</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E256" s="0" t="inlineStr">
+        <is>
+          <t>sv-mh23670</t>
+        </is>
+      </c>
+      <c r="F256" s="0" t="inlineStr">
+        <is>
+          <t>023137509</t>
+        </is>
+      </c>
+      <c r="G256" s="0" t="inlineStr">
+        <is>
+          <t>11142601701015</t>
+        </is>
+      </c>
+      <c r="H256" s="0" t="inlineStr">
+        <is>
+          <t>MARTINEZ ORTIZ</t>
+        </is>
+      </c>
+      <c r="I256" s="0" t="inlineStr">
+        <is>
+          <t>HECTOR ANTONIO</t>
+        </is>
+      </c>
+      <c r="J256" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K256" s="0" t="inlineStr">
+        <is>
+          <t>66311175</t>
+        </is>
+      </c>
+      <c r="L256" s="0" t="inlineStr">
+        <is>
+          <t>141.80</t>
+        </is>
+      </c>
+      <c r="M256" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>25233</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E257" s="0" t="inlineStr">
+        <is>
+          <t>sv-mj25233</t>
+        </is>
+      </c>
+      <c r="F257" s="0" t="inlineStr">
+        <is>
+          <t>024353378</t>
+        </is>
+      </c>
+      <c r="G257" s="0" t="inlineStr">
+        <is>
+          <t>06141612640130</t>
+        </is>
+      </c>
+      <c r="H257" s="0" t="inlineStr">
+        <is>
+          <t>MIRANDA QUINTANILLA</t>
+        </is>
+      </c>
+      <c r="I257" s="0" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO</t>
+        </is>
+      </c>
+      <c r="J257" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K257" s="0" t="inlineStr">
+        <is>
+          <t>62729067</t>
+        </is>
+      </c>
+      <c r="L257" s="0" t="inlineStr">
+        <is>
+          <t>214.40</t>
+        </is>
+      </c>
+      <c r="M257" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>25309</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D258" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E258" s="0" t="inlineStr">
+        <is>
+          <t>sv-ge25309</t>
+        </is>
+      </c>
+      <c r="F258" s="0" t="inlineStr">
+        <is>
+          <t>025756545</t>
+        </is>
+      </c>
+      <c r="G258" s="0" t="inlineStr">
+        <is>
+          <t>14072012811016</t>
+        </is>
+      </c>
+      <c r="H258" s="0" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="I258" s="0" t="inlineStr">
+        <is>
+          <t>EDWIN JOVANY</t>
+        </is>
+      </c>
+      <c r="J258" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K258" s="0" t="inlineStr">
+        <is>
+          <t>74100034</t>
+        </is>
+      </c>
+      <c r="L258" s="0" t="inlineStr">
+        <is>
+          <t>163.80</t>
+        </is>
+      </c>
+      <c r="M258" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>30105</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D259" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E259" s="0" t="inlineStr">
+        <is>
+          <t>sv-mj30105</t>
+        </is>
+      </c>
+      <c r="F259" s="0" t="inlineStr">
+        <is>
+          <t>006305814</t>
+        </is>
+      </c>
+      <c r="G259" s="0" t="inlineStr">
+        <is>
+          <t>06142202811036</t>
+        </is>
+      </c>
+      <c r="H259" s="0" t="inlineStr">
+        <is>
+          <t>MARROQUIN MARROQUIN</t>
+        </is>
+      </c>
+      <c r="I259" s="0" t="inlineStr">
+        <is>
+          <t>JAIME RAUL</t>
+        </is>
+      </c>
+      <c r="J259" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K259" s="0" t="inlineStr">
+        <is>
+          <t>79767136</t>
+        </is>
+      </c>
+      <c r="L259" s="0" t="inlineStr">
+        <is>
+          <t>260.20</t>
+        </is>
+      </c>
+      <c r="M259" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>42266</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D260" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E260" s="0" t="inlineStr">
+        <is>
+          <t>sv-gc42266</t>
+        </is>
+      </c>
+      <c r="F260" s="0" t="inlineStr">
+        <is>
+          <t>015646170</t>
+        </is>
+      </c>
+      <c r="G260" s="0" t="inlineStr">
+        <is>
+          <t>05111211811026</t>
+        </is>
+      </c>
+      <c r="H260" s="0" t="inlineStr">
+        <is>
+          <t>GHIRINGHELLO ROSALES</t>
+        </is>
+      </c>
+      <c r="I260" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS RICARDO</t>
+        </is>
+      </c>
+      <c r="J260" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K260" s="0" t="inlineStr">
+        <is>
+          <t>72471706</t>
+        </is>
+      </c>
+      <c r="L260" s="0" t="inlineStr">
+        <is>
+          <t>214.20</t>
+        </is>
+      </c>
+      <c r="M260" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>47519</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D261" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E261" s="0" t="inlineStr">
+        <is>
+          <t>sv-gs47519</t>
+        </is>
+      </c>
+      <c r="F261" s="0" t="inlineStr">
+        <is>
+          <t>008298762</t>
+        </is>
+      </c>
+      <c r="G261" s="0" t="inlineStr">
+        <is>
+          <t>10100303620011</t>
+        </is>
+      </c>
+      <c r="H261" s="0" t="inlineStr">
+        <is>
+          <t>GUZMAN SAMAYOA</t>
+        </is>
+      </c>
+      <c r="I261" s="0" t="inlineStr">
+        <is>
+          <t>SARA LORENA</t>
+        </is>
+      </c>
+      <c r="J261" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K261" s="0" t="inlineStr">
+        <is>
+          <t>62846340</t>
+        </is>
+      </c>
+      <c r="L261" s="0" t="inlineStr">
+        <is>
+          <t>384.20</t>
+        </is>
+      </c>
+      <c r="M261" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>47595</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C262" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D262" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E262" s="0" t="inlineStr">
+        <is>
+          <t>sv-gm47595</t>
+        </is>
+      </c>
+      <c r="F262" s="0" t="inlineStr">
+        <is>
+          <t>018904967</t>
+        </is>
+      </c>
+      <c r="G262" s="0" t="inlineStr">
+        <is>
+          <t>05022502510015</t>
+        </is>
+      </c>
+      <c r="H262" s="0" t="inlineStr">
+        <is>
+          <t>GUARDADO</t>
+        </is>
+      </c>
+      <c r="I262" s="0" t="inlineStr">
+        <is>
+          <t>MARIO</t>
+        </is>
+      </c>
+      <c r="J262" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K262" s="0" t="inlineStr">
+        <is>
+          <t>79289424</t>
+        </is>
+      </c>
+      <c r="L262" s="0" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="M262" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>47598</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D263" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E263" s="0" t="inlineStr">
+        <is>
+          <t>sv-cr47598</t>
+        </is>
+      </c>
+      <c r="F263" s="0" t="inlineStr">
+        <is>
+          <t>025933113</t>
+        </is>
+      </c>
+      <c r="G263" s="0" t="inlineStr">
+        <is>
+          <t>06142008540032</t>
+        </is>
+      </c>
+      <c r="H263" s="0" t="inlineStr">
+        <is>
+          <t>CRUZ GUZMAN</t>
+        </is>
+      </c>
+      <c r="I263" s="0" t="inlineStr">
+        <is>
+          <t>ROSA MARGARITA</t>
+        </is>
+      </c>
+      <c r="J263" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K263" s="0" t="inlineStr">
+        <is>
+          <t>62437362</t>
+        </is>
+      </c>
+      <c r="L263" s="0" t="inlineStr">
+        <is>
+          <t>363.40</t>
+        </is>
+      </c>
+      <c r="M263" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>47627</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E264" s="0" t="inlineStr">
+        <is>
+          <t>sv-me47627</t>
+        </is>
+      </c>
+      <c r="F264" s="0" t="inlineStr">
+        <is>
+          <t>024544296</t>
+        </is>
+      </c>
+      <c r="G264" s="0" t="inlineStr">
+        <is>
+          <t>06072702650017</t>
+        </is>
+      </c>
+      <c r="H264" s="0" t="inlineStr">
+        <is>
+          <t>MARROQUIN AMAYA</t>
+        </is>
+      </c>
+      <c r="I264" s="0" t="inlineStr">
+        <is>
+          <t>EVELYN DE LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="J264" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K264" s="0" t="inlineStr">
+        <is>
+          <t>70704632</t>
+        </is>
+      </c>
+      <c r="L264" s="0" t="inlineStr">
+        <is>
+          <t>395.80</t>
+        </is>
+      </c>
+      <c r="M264" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>47630</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E265" s="0" t="inlineStr">
+        <is>
+          <t>sv-sr47630</t>
+        </is>
+      </c>
+      <c r="F265" s="0" t="inlineStr">
+        <is>
+          <t>004240783</t>
+        </is>
+      </c>
+      <c r="G265" s="0" t="inlineStr">
+        <is>
+          <t>10080502561016</t>
+        </is>
+      </c>
+      <c r="H265" s="0" t="inlineStr">
+        <is>
+          <t>SANCHEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="I265" s="0" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="J265" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K265" s="0" t="inlineStr">
+        <is>
+          <t>74398467</t>
+        </is>
+      </c>
+      <c r="L265" s="0" t="inlineStr">
+        <is>
+          <t>185.20</t>
+        </is>
+      </c>
+      <c r="M265" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>47663</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D266" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E266" s="0" t="inlineStr">
+        <is>
+          <t>sv-fr47663</t>
+        </is>
+      </c>
+      <c r="F266" s="0" t="inlineStr">
+        <is>
+          <t>010757691</t>
+        </is>
+      </c>
+      <c r="G266" s="0" t="inlineStr">
+        <is>
+          <t>06142405600136</t>
+        </is>
+      </c>
+      <c r="H266" s="0" t="inlineStr">
+        <is>
+          <t>FONG HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="I266" s="0" t="inlineStr">
+        <is>
+          <t>ROBERTO ENRIQUE</t>
+        </is>
+      </c>
+      <c r="J266" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K266" s="0" t="inlineStr">
+        <is>
+          <t>62823380</t>
+        </is>
+      </c>
+      <c r="L266" s="0" t="inlineStr">
+        <is>
+          <t>361.80</t>
+        </is>
+      </c>
+      <c r="M266" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>47665</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D267" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E267" s="0" t="inlineStr">
+        <is>
+          <t>sv-cj47665</t>
+        </is>
+      </c>
+      <c r="F267" s="0" t="inlineStr">
+        <is>
+          <t>003719006</t>
+        </is>
+      </c>
+      <c r="G267" s="0" t="inlineStr">
+        <is>
+          <t>05150802480019</t>
+        </is>
+      </c>
+      <c r="H267" s="0" t="inlineStr">
+        <is>
+          <t>CASTILLO MEZQUITA</t>
+        </is>
+      </c>
+      <c r="I267" s="0" t="inlineStr">
+        <is>
+          <t>JUAN JUVENCIO</t>
+        </is>
+      </c>
+      <c r="J267" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K267" s="0" t="inlineStr">
+        <is>
+          <t>78514479</t>
+        </is>
+      </c>
+      <c r="L267" s="0" t="inlineStr">
+        <is>
+          <t>171.60</t>
+        </is>
+      </c>
+      <c r="M267" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>47673</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D268" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E268" s="0" t="inlineStr">
+        <is>
+          <t>sv-lr47673</t>
+        </is>
+      </c>
+      <c r="F268" s="0" t="inlineStr">
+        <is>
+          <t>020540517</t>
+        </is>
+      </c>
+      <c r="G268" s="0" t="inlineStr">
+        <is>
+          <t>06141909811370</t>
+        </is>
+      </c>
+      <c r="H268" s="0" t="inlineStr">
+        <is>
+          <t>LARA CACERES</t>
+        </is>
+      </c>
+      <c r="I268" s="0" t="inlineStr">
+        <is>
+          <t>RICARDO ERNESTO</t>
+        </is>
+      </c>
+      <c r="J268" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K268" s="0" t="inlineStr">
+        <is>
+          <t>79857656</t>
+        </is>
+      </c>
+      <c r="L268" s="0" t="inlineStr">
+        <is>
+          <t>223.40</t>
+        </is>
+      </c>
+      <c r="M268" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>47676</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C269" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D269" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E269" s="0" t="inlineStr">
+        <is>
+          <t>sv-rj47676</t>
+        </is>
+      </c>
+      <c r="F269" s="0" t="inlineStr">
+        <is>
+          <t>008816594</t>
+        </is>
+      </c>
+      <c r="G269" s="0" t="inlineStr">
+        <is>
+          <t>05120304701017</t>
+        </is>
+      </c>
+      <c r="H269" s="0" t="inlineStr">
+        <is>
+          <t>RAMOS PEREZ</t>
+        </is>
+      </c>
+      <c r="I269" s="0" t="inlineStr">
+        <is>
+          <t>JACOBO</t>
+        </is>
+      </c>
+      <c r="J269" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K269" s="0" t="inlineStr">
+        <is>
+          <t>71651054</t>
+        </is>
+      </c>
+      <c r="L269" s="0" t="inlineStr">
+        <is>
+          <t>184.40</t>
+        </is>
+      </c>
+      <c r="M269" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>47677</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C270" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D270" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E270" s="0" t="inlineStr">
+        <is>
+          <t>sv-pg47677</t>
+        </is>
+      </c>
+      <c r="F270" s="0" t="inlineStr">
+        <is>
+          <t>009276454</t>
+        </is>
+      </c>
+      <c r="G270" s="0" t="inlineStr">
+        <is>
+          <t>05222004721013</t>
+        </is>
+      </c>
+      <c r="H270" s="0" t="inlineStr">
+        <is>
+          <t>POCASANGRE HUEZO</t>
+        </is>
+      </c>
+      <c r="I270" s="0" t="inlineStr">
+        <is>
+          <t>GUILLERMO</t>
+        </is>
+      </c>
+      <c r="J270" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K270" s="0" t="inlineStr">
+        <is>
+          <t>77894991</t>
+        </is>
+      </c>
+      <c r="L270" s="0" t="inlineStr">
+        <is>
+          <t>272.80</t>
+        </is>
+      </c>
+      <c r="M270" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>47679</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C271" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D271" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E271" s="0" t="inlineStr">
+        <is>
+          <t>sv-rj47679</t>
+        </is>
+      </c>
+      <c r="F271" s="0" t="inlineStr">
+        <is>
+          <t>000883872</t>
+        </is>
+      </c>
+      <c r="G271" s="0" t="inlineStr">
+        <is>
+          <t>14162712781010</t>
+        </is>
+      </c>
+      <c r="H271" s="0" t="inlineStr">
+        <is>
+          <t>REYES SALAZAR</t>
+        </is>
+      </c>
+      <c r="I271" s="0" t="inlineStr">
+        <is>
+          <t>JUAN DAVID</t>
+        </is>
+      </c>
+      <c r="J271" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K271" s="0" t="inlineStr">
+        <is>
+          <t>70710453</t>
+        </is>
+      </c>
+      <c r="L271" s="0" t="inlineStr">
+        <is>
+          <t>292.40</t>
+        </is>
+      </c>
+      <c r="M271" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>47682</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C272" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D272" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E272" s="0" t="inlineStr">
+        <is>
+          <t>sv-om47682</t>
+        </is>
+      </c>
+      <c r="F272" s="0" t="inlineStr">
+        <is>
+          <t>003565392</t>
+        </is>
+      </c>
+      <c r="G272" s="0" t="inlineStr">
+        <is>
+          <t>12172412781040</t>
+        </is>
+      </c>
+      <c r="H272" s="0" t="inlineStr">
+        <is>
+          <t>OLIVARES RUIZ</t>
+        </is>
+      </c>
+      <c r="I272" s="0" t="inlineStr">
+        <is>
+          <t>MARGARITA DE LA PAZ</t>
+        </is>
+      </c>
+      <c r="J272" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K272" s="0" t="inlineStr">
+        <is>
+          <t>66606154</t>
+        </is>
+      </c>
+      <c r="L272" s="0" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="M272" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>47683</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C273" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D273" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E273" s="0" t="inlineStr">
+        <is>
+          <t>sv-cb47683</t>
+        </is>
+      </c>
+      <c r="F273" s="0" t="inlineStr">
+        <is>
+          <t>010622294</t>
+        </is>
+      </c>
+      <c r="G273" s="0" t="inlineStr">
+        <is>
+          <t>11092505831024</t>
+        </is>
+      </c>
+      <c r="H273" s="0" t="inlineStr">
+        <is>
+          <t>CRUZ AMAYA</t>
+        </is>
+      </c>
+      <c r="I273" s="0" t="inlineStr">
+        <is>
+          <t>BLANCA MARIBEL</t>
+        </is>
+      </c>
+      <c r="J273" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K273" s="0" t="inlineStr">
+        <is>
+          <t>78866026</t>
+        </is>
+      </c>
+      <c r="L273" s="0" t="inlineStr">
+        <is>
+          <t>335.40</t>
+        </is>
+      </c>
+      <c r="M273" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>47691</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C274" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D274" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E274" s="0" t="inlineStr">
+        <is>
+          <t>sv-ud47691</t>
+        </is>
+      </c>
+      <c r="F274" s="0" t="inlineStr">
+        <is>
+          <t>008095449</t>
+        </is>
+      </c>
+      <c r="G274" s="0" t="inlineStr">
+        <is>
+          <t>14030711551011</t>
+        </is>
+      </c>
+      <c r="H274" s="0" t="inlineStr">
+        <is>
+          <t>UMANZOR DE RIVERA</t>
+        </is>
+      </c>
+      <c r="I274" s="0" t="inlineStr">
+        <is>
+          <t>DOLORES SUYAPA</t>
+        </is>
+      </c>
+      <c r="J274" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K274" s="0" t="inlineStr">
+        <is>
+          <t>62257198</t>
+        </is>
+      </c>
+      <c r="L274" s="0" t="inlineStr">
+        <is>
+          <t>368.80</t>
+        </is>
+      </c>
+      <c r="M274" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>47693</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C275" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D275" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E275" s="0" t="inlineStr">
+        <is>
+          <t>sv-mm47693</t>
+        </is>
+      </c>
+      <c r="F275" s="0" t="inlineStr">
+        <is>
+          <t>003104594</t>
+        </is>
+      </c>
+      <c r="G275" s="0" t="inlineStr">
+        <is>
+          <t>07022402530010</t>
+        </is>
+      </c>
+      <c r="H275" s="0" t="inlineStr">
+        <is>
+          <t>MEJIA</t>
+        </is>
+      </c>
+      <c r="I275" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL ANTONIO</t>
+        </is>
+      </c>
+      <c r="J275" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K275" s="0" t="inlineStr">
+        <is>
+          <t>62357596</t>
+        </is>
+      </c>
+      <c r="L275" s="0" t="inlineStr">
+        <is>
+          <t>189.80</t>
+        </is>
+      </c>
+      <c r="M275" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>47695</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C276" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D276" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="E276" s="0" t="inlineStr">
+        <is>
+          <t>sv-qa47695</t>
+        </is>
+      </c>
+      <c r="F276" s="0" t="inlineStr">
+        <is>
+          <t>006196100</t>
+        </is>
+      </c>
+      <c r="G276" s="0" t="inlineStr">
+        <is>
+          <t>06142903580100</t>
+        </is>
+      </c>
+      <c r="H276" s="0" t="inlineStr">
+        <is>
+          <t>QUINTANILLA DE ZULETA</t>
+        </is>
+      </c>
+      <c r="I276" s="0" t="inlineStr">
+        <is>
+          <t>ANA DORA ALICIA</t>
+        </is>
+      </c>
+      <c r="J276" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K276" s="0" t="inlineStr">
+        <is>
+          <t>62716439</t>
+        </is>
+      </c>
+      <c r="L276" s="0" t="inlineStr">
+        <is>
+          <t>234.20</t>
+        </is>
+      </c>
+      <c r="M276" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>47710</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C277" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D277" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E277" s="0" t="inlineStr">
+        <is>
+          <t>sv-ch47710</t>
+        </is>
+      </c>
+      <c r="F277" s="0" t="inlineStr">
+        <is>
+          <t>016954788</t>
+        </is>
+      </c>
+      <c r="G277" s="0" t="inlineStr">
+        <is>
+          <t>13242208681012</t>
+        </is>
+      </c>
+      <c r="H277" s="0" t="inlineStr">
+        <is>
+          <t>CHACON ARGUETA</t>
+        </is>
+      </c>
+      <c r="I277" s="0" t="inlineStr">
+        <is>
+          <t>HECTOR MANUEL</t>
+        </is>
+      </c>
+      <c r="J277" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K277" s="0" t="inlineStr">
+        <is>
+          <t>77781096</t>
+        </is>
+      </c>
+      <c r="L277" s="0" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="M277" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>47711</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C278" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D278" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E278" s="0" t="inlineStr">
+        <is>
+          <t>sv-ms47711</t>
+        </is>
+      </c>
+      <c r="F278" s="0" t="inlineStr">
+        <is>
+          <t>043265819</t>
+        </is>
+      </c>
+      <c r="G278" s="0" t="inlineStr">
+        <is>
+          <t>11230112901016</t>
+        </is>
+      </c>
+      <c r="H278" s="0" t="inlineStr">
+        <is>
+          <t>MEDRANO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="I278" s="0" t="inlineStr">
+        <is>
+          <t>SAMUEL GERARDO</t>
+        </is>
+      </c>
+      <c r="J278" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K278" s="0" t="inlineStr">
+        <is>
+          <t>78692068</t>
+        </is>
+      </c>
+      <c r="L278" s="0" t="inlineStr">
+        <is>
+          <t>219.40</t>
+        </is>
+      </c>
+      <c r="M278" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>47712</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C279" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D279" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="E279" s="0" t="inlineStr">
+        <is>
+          <t>sv-he47712</t>
+        </is>
+      </c>
+      <c r="F279" s="0" t="inlineStr">
+        <is>
+          <t>017719377</t>
+        </is>
+      </c>
+      <c r="G279" s="0" t="inlineStr">
+        <is>
+          <t>06140209801181</t>
+        </is>
+      </c>
+      <c r="H279" s="0" t="inlineStr">
+        <is>
+          <t>HERNANDEZ DURAN</t>
+        </is>
+      </c>
+      <c r="I279" s="0" t="inlineStr">
+        <is>
+          <t>ERICK STEFFAN</t>
+        </is>
+      </c>
+      <c r="J279" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K279" s="0" t="inlineStr">
+        <is>
+          <t>76955228</t>
+        </is>
+      </c>
+      <c r="L279" s="0" t="inlineStr">
+        <is>
+          <t>364.60</t>
+        </is>
+      </c>
+      <c r="M279" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
